--- a/results.xlsx
+++ b/results.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Clouddiensten\Stack\Documenten\01 Eindhoven\01 TU Eindhoven\Master\Afstuderen\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AE52B70-387C-42CE-ADB8-B5041A881337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7E156F-5A72-4483-BEF5-253070890324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5610" yWindow="645" windowWidth="21600" windowHeight="12735" xr2:uid="{467F7A0A-60A9-453F-A0E0-556BFBB296AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{467F7A0A-60A9-453F-A0E0-556BFBB296AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="39">
   <si>
     <t>Experiment 1</t>
   </si>
@@ -109,16 +111,59 @@
   </si>
   <si>
     <t>LR</t>
+  </si>
+  <si>
+    <t>Loss configuration</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Baseline + adversarial</t>
+  </si>
+  <si>
+    <t>Baseline + perceptual</t>
+  </si>
+  <si>
+    <t>Baseline + both</t>
+  </si>
+  <si>
+    <t>SSIM ↑</t>
+  </si>
+  <si>
+    <t>PSNR ↑</t>
+  </si>
+  <si>
+    <t>NRMSE ↓</t>
+  </si>
+  <si>
+    <t>Rounded</t>
+  </si>
+  <si>
+    <t>Formatted</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Only HCP</t>
+  </si>
+  <si>
+    <t>Only Sim</t>
+  </si>
+  <si>
+    <t>HCP and Sim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +187,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -389,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -411,6 +462,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -432,25 +507,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -768,7 +837,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,22 +892,22 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="25"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="41"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="5" t="s">
         <v>5</v>
       </c>
@@ -885,25 +954,25 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38">
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="28">
         <v>0.93395265613830702</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="28">
         <v>2.9420538124850502E-3</v>
       </c>
       <c r="G9" s="5">
         <v>33.712212390716502</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="21">
         <v>0.281798821292427</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="21">
         <v>5.5667151160603397E-2</v>
       </c>
       <c r="J9" s="6">
@@ -923,22 +992,22 @@
       <c r="D10" s="16">
         <v>0</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="24">
         <v>0.96193014094930696</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="26">
         <v>2.0378893891147402E-3</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="25">
         <v>36.141604121887703</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="26">
         <v>0.61015832883822296</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="25">
         <v>4.2151142499425497E-2</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="27">
         <v>2.4414506059491099E-3</v>
       </c>
     </row>
@@ -955,19 +1024,19 @@
       <c r="D11" s="16">
         <v>0</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="22">
         <v>0.95021300498626904</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="22">
         <v>2.3349034316965298E-3</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="21">
         <v>35.819949409747103</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="22">
         <v>0.26333616443114799</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="21">
         <v>4.3671416102453897E-2</v>
       </c>
       <c r="J11" s="6">
@@ -987,19 +1056,19 @@
       <c r="D12" s="16">
         <v>0.1</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="22">
         <v>0.94519342165907705</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="22">
         <v>2.5310582666105501E-3</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="21">
         <v>35.096214071912797</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="22">
         <v>0.25236841518528103</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="21">
         <v>4.7465468192798801E-2</v>
       </c>
       <c r="J12" s="6">
@@ -1019,22 +1088,22 @@
       <c r="D13" s="17">
         <v>0.1</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="23">
         <v>0.94278755772430201</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="23">
         <v>2.5972124473301801E-3</v>
       </c>
       <c r="G13" s="9">
         <v>34.840224980059403</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="29">
         <v>0.23896000256801</v>
       </c>
       <c r="I13" s="9">
         <v>4.8884485129473097E-2</v>
       </c>
-      <c r="J13" s="40">
+      <c r="J13" s="30">
         <v>6.3036153601249401E-4</v>
       </c>
     </row>
@@ -1118,31 +1187,31 @@
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="14"/>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="25"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="41"/>
       <c r="P23" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="23"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="18" t="s">
         <v>5</v>
       </c>
@@ -1213,92 +1282,182 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
-        <v>30</v>
-      </c>
-      <c r="B26" s="16">
-        <v>0</v>
-      </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="6"/>
+      <c r="A26" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26">
+        <v>0.97865320453161098</v>
+      </c>
+      <c r="D26">
+        <v>1.2190669074549001E-3</v>
+      </c>
+      <c r="E26">
+        <v>38.740329353190198</v>
+      </c>
+      <c r="F26">
+        <v>0.384324596025233</v>
+      </c>
+      <c r="G26">
+        <v>3.1849222640504098E-2</v>
+      </c>
+      <c r="H26" s="33">
+        <v>9.6185954224135102E-4</v>
+      </c>
+      <c r="I26" s="28">
+        <v>0.93395265613830702</v>
+      </c>
+      <c r="J26" s="5">
+        <v>2.9420538124850502E-3</v>
+      </c>
+      <c r="K26" s="5">
+        <v>33.712212390716502</v>
+      </c>
+      <c r="L26" s="21">
+        <v>0.281798821292427</v>
+      </c>
+      <c r="M26" s="21">
+        <v>5.5667151160603397E-2</v>
+      </c>
+      <c r="N26" s="6">
+        <v>9.5328345946582105E-4</v>
+      </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
+        <v>30</v>
+      </c>
+      <c r="B27" s="16">
         <v>0</v>
       </c>
-      <c r="B27" s="16">
-        <v>30</v>
-      </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="6"/>
+      <c r="C27" s="18">
+        <v>0.98613538886933705</v>
+      </c>
+      <c r="D27" s="5">
+        <v>6.4040743645354405E-4</v>
+      </c>
+      <c r="E27" s="5">
+        <v>40.315516721469201</v>
+      </c>
+      <c r="F27" s="21">
+        <v>0.35242389853908002</v>
+      </c>
+      <c r="G27" s="21">
+        <v>2.6564304071543001E-2</v>
+      </c>
+      <c r="H27" s="16">
+        <v>7.1385377445386895E-4</v>
+      </c>
+      <c r="I27" s="21">
+        <v>0.86703876258988999</v>
+      </c>
+      <c r="J27" s="21">
+        <v>5.3695413591825798E-3</v>
+      </c>
+      <c r="K27" s="21">
+        <v>28.647436784116699</v>
+      </c>
+      <c r="L27" s="21">
+        <v>0.42524085490510199</v>
+      </c>
+      <c r="M27" s="21">
+        <v>9.9776298405802905E-2</v>
+      </c>
+      <c r="N27" s="6">
+        <v>3.3899335566959601E-3</v>
+      </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
+        <v>0</v>
+      </c>
+      <c r="B28" s="16">
         <v>30</v>
       </c>
-      <c r="B28" s="16">
-        <v>5</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="6"/>
+      <c r="C28" s="18">
+        <v>0.96741371305133095</v>
+      </c>
+      <c r="D28" s="21">
+        <v>1.5484757318919701E-3</v>
+      </c>
+      <c r="E28" s="21">
+        <v>36.061484141172201</v>
+      </c>
+      <c r="F28" s="21">
+        <v>0.33963541280156401</v>
+      </c>
+      <c r="G28" s="21">
+        <v>4.3349817339358998E-2</v>
+      </c>
+      <c r="H28" s="16">
+        <v>1.1156841890197699E-3</v>
+      </c>
+      <c r="I28" s="34">
+        <v>0.94154102892533498</v>
+      </c>
+      <c r="J28" s="34">
+        <v>2.71142616793054E-3</v>
+      </c>
+      <c r="K28" s="34">
+        <v>34.887607245847803</v>
+      </c>
+      <c r="L28" s="34">
+        <v>0.24094214535863401</v>
+      </c>
+      <c r="M28" s="34">
+        <v>4.8618812731489498E-2</v>
+      </c>
+      <c r="N28" s="6">
+        <v>6.4714275494098903E-4</v>
+      </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>30</v>
       </c>
       <c r="B29" s="16">
-        <v>15</v>
-      </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="C29" s="18">
+        <v>0.97475202137444605</v>
+      </c>
+      <c r="D29" s="21">
+        <v>1.17236871135975E-3</v>
+      </c>
+      <c r="E29" s="21">
+        <v>37.683432041866403</v>
+      </c>
+      <c r="F29" s="21">
+        <v>0.32274574333387701</v>
+      </c>
+      <c r="G29" s="21">
+        <v>3.5966216966542598E-2</v>
+      </c>
+      <c r="H29" s="16">
+        <v>9.4357644759475098E-4</v>
+      </c>
+      <c r="I29" s="34">
+        <v>0.93605071414291796</v>
+      </c>
+      <c r="J29" s="34">
+        <v>2.78736645724399E-3</v>
+      </c>
+      <c r="K29" s="34">
+        <v>33.930105744499897</v>
+      </c>
+      <c r="L29" s="34">
+        <v>0.23611087540123901</v>
+      </c>
+      <c r="M29" s="34">
+        <v>5.4284233495711397E-2</v>
+      </c>
+      <c r="N29" s="6">
+        <v>6.6826685203324597E-4</v>
+      </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
-        <v>30</v>
-      </c>
-      <c r="B30" s="16">
-        <v>30</v>
-      </c>
+      <c r="A30" s="7"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="18"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -1313,12 +1472,8 @@
       <c r="N30" s="6"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
-        <v>15</v>
-      </c>
-      <c r="B31" s="16">
-        <v>30</v>
-      </c>
+      <c r="A31" s="7"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="18"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -1333,12 +1488,8 @@
       <c r="N31" s="6"/>
     </row>
     <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
-        <v>5</v>
-      </c>
-      <c r="B32" s="17">
-        <v>30</v>
-      </c>
+      <c r="A32" s="8"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="19"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -1353,7 +1504,8 @@
       <c r="N32" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="C23:H23"/>
@@ -1364,4 +1516,1187 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4D7490-FBDC-4F9E-BA9E-23A2CA096201}">
+  <dimension ref="A1:Y29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
+      <c r="M1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="52" t="str">
+        <f>E11&amp;"0 ± "&amp;F11</f>
+        <v>0.9340 ± 0.0029</v>
+      </c>
+      <c r="N3" s="52" t="str">
+        <f>G11&amp;" ± "&amp;H11</f>
+        <v>33.71 ± 0.2818</v>
+      </c>
+      <c r="O3" s="52" t="str">
+        <f>I11&amp;" ± "&amp;J11</f>
+        <v>0.05567 ± 0.00095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="28">
+        <v>0.93395265613830702</v>
+      </c>
+      <c r="F4" s="28">
+        <v>2.9420538124850502E-3</v>
+      </c>
+      <c r="G4" s="46">
+        <v>33.712212390716502</v>
+      </c>
+      <c r="H4" s="22">
+        <v>0.281798821292427</v>
+      </c>
+      <c r="I4" s="21">
+        <v>5.5667151160603397E-2</v>
+      </c>
+      <c r="J4" s="50">
+        <v>9.5328345946582105E-4</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="53" t="str">
+        <f>E12&amp;" ± "&amp;F12&amp;"0"</f>
+        <v>0.9619 ± 0.0020</v>
+      </c>
+      <c r="N4" s="52" t="str">
+        <f>G12&amp;" ± "&amp;H12</f>
+        <v>36.14 ± 0.6102</v>
+      </c>
+      <c r="O4" s="52" t="str">
+        <f>I12&amp;" ± "&amp;J12</f>
+        <v>0.04215 ± 0.00244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0</v>
+      </c>
+      <c r="E5" s="24">
+        <v>0.96193014094930696</v>
+      </c>
+      <c r="F5" s="26">
+        <v>2.0378893891147402E-3</v>
+      </c>
+      <c r="G5" s="47">
+        <v>36.141604121887703</v>
+      </c>
+      <c r="H5" s="26">
+        <v>0.61015832883822296</v>
+      </c>
+      <c r="I5" s="25">
+        <v>4.2151142499425497E-2</v>
+      </c>
+      <c r="J5" s="51">
+        <v>2.4414506059491099E-3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="52" t="str">
+        <f>E13&amp;" ± "&amp;F13</f>
+        <v>0.9502 ± 0.0023</v>
+      </c>
+      <c r="N5" s="52" t="str">
+        <f>G13&amp;" ± "&amp;H13</f>
+        <v>35.82 ± 0.2633</v>
+      </c>
+      <c r="O5" s="52" t="str">
+        <f>I13&amp;" ± "&amp;J13</f>
+        <v>0.04367 ± 0.00065</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0.95021300498626904</v>
+      </c>
+      <c r="F6" s="22">
+        <v>2.3349034316965298E-3</v>
+      </c>
+      <c r="G6" s="48">
+        <v>35.819949409747103</v>
+      </c>
+      <c r="H6" s="22">
+        <v>0.26333616443114799</v>
+      </c>
+      <c r="I6" s="21">
+        <v>4.3671416102453897E-2</v>
+      </c>
+      <c r="J6" s="50">
+        <v>6.5133560854454197E-4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="52" t="str">
+        <f>E14&amp;" ± "&amp;F14</f>
+        <v>0.9452 ± 0.0025</v>
+      </c>
+      <c r="N6" s="52" t="str">
+        <f>G14&amp;"0 ± "&amp;H14</f>
+        <v>35.10 ± 0.2524</v>
+      </c>
+      <c r="O6" s="52" t="str">
+        <f>I14&amp;" ± "&amp;J14</f>
+        <v>0.04747 ± 0.00066</v>
+      </c>
+      <c r="Y6" s="45"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0.94519342165907705</v>
+      </c>
+      <c r="F7" s="22">
+        <v>2.5310582666105501E-3</v>
+      </c>
+      <c r="G7" s="48">
+        <v>35.096214071912797</v>
+      </c>
+      <c r="H7" s="22">
+        <v>0.25236841518528103</v>
+      </c>
+      <c r="I7" s="21">
+        <v>4.7465468192798801E-2</v>
+      </c>
+      <c r="J7" s="50">
+        <v>6.6123680887165905E-4</v>
+      </c>
+      <c r="L7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="52" t="str">
+        <f>E15&amp;" ± "&amp;F15</f>
+        <v>0.9428 ± 0.0026</v>
+      </c>
+      <c r="N7" s="52" t="str">
+        <f>G15&amp;" ± "&amp;H15&amp;"0"</f>
+        <v>34.84 ± 0.2390</v>
+      </c>
+      <c r="O7" s="52" t="str">
+        <f>I15&amp;" ± "&amp;J15</f>
+        <v>0.04888 ± 0.00063</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="23">
+        <v>0.94278755772430201</v>
+      </c>
+      <c r="F8" s="23">
+        <v>2.5972124473301801E-3</v>
+      </c>
+      <c r="G8" s="49">
+        <v>34.840224980059403</v>
+      </c>
+      <c r="H8" s="29">
+        <v>0.23896000256801</v>
+      </c>
+      <c r="I8" s="9">
+        <v>4.8884485129473097E-2</v>
+      </c>
+      <c r="J8" s="30">
+        <v>6.3036153601249401E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E11" s="52">
+        <f>ROUND(E4,4)</f>
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="F11" s="52">
+        <f>ROUND(F4,4)</f>
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="G11" s="53">
+        <f>ROUND(G4,2)</f>
+        <v>33.71</v>
+      </c>
+      <c r="H11" s="52">
+        <f>ROUND(H4,4)</f>
+        <v>0.28179999999999999</v>
+      </c>
+      <c r="I11" s="54">
+        <f>ROUND(I4,5)</f>
+        <v>5.5669999999999997E-2</v>
+      </c>
+      <c r="J11" s="54">
+        <f>ROUND(J4,5)</f>
+        <v>9.5E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E12" s="52">
+        <f>ROUND(E5,4)</f>
+        <v>0.96189999999999998</v>
+      </c>
+      <c r="F12" s="52">
+        <f>ROUND(F5,4)</f>
+        <v>2E-3</v>
+      </c>
+      <c r="G12" s="53">
+        <f>ROUND(G5,2)</f>
+        <v>36.14</v>
+      </c>
+      <c r="H12" s="52">
+        <f>ROUND(H5,4)</f>
+        <v>0.61019999999999996</v>
+      </c>
+      <c r="I12" s="54">
+        <f>ROUND(I5,5)</f>
+        <v>4.215E-2</v>
+      </c>
+      <c r="J12" s="54">
+        <f>ROUND(J5,5)</f>
+        <v>2.4399999999999999E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E13" s="52">
+        <f>ROUND(E6,4)</f>
+        <v>0.95020000000000004</v>
+      </c>
+      <c r="F13" s="52">
+        <f>ROUND(F6,4)</f>
+        <v>2.3E-3</v>
+      </c>
+      <c r="G13" s="53">
+        <f>ROUND(G6,2)</f>
+        <v>35.82</v>
+      </c>
+      <c r="H13" s="52">
+        <f>ROUND(H6,4)</f>
+        <v>0.26329999999999998</v>
+      </c>
+      <c r="I13" s="54">
+        <f>ROUND(I6,5)</f>
+        <v>4.367E-2</v>
+      </c>
+      <c r="J13" s="54">
+        <f>ROUND(J6,5)</f>
+        <v>6.4999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E14" s="52">
+        <f>ROUND(E7,4)</f>
+        <v>0.94520000000000004</v>
+      </c>
+      <c r="F14" s="52">
+        <f>ROUND(F7,4)</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G14" s="53">
+        <f>ROUND(G7,2)</f>
+        <v>35.1</v>
+      </c>
+      <c r="H14" s="52">
+        <f>ROUND(H7,4)</f>
+        <v>0.25240000000000001</v>
+      </c>
+      <c r="I14" s="54">
+        <f>ROUND(I7,5)</f>
+        <v>4.7469999999999998E-2</v>
+      </c>
+      <c r="J14" s="54">
+        <f>ROUND(J7,5)</f>
+        <v>6.6E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E15" s="52">
+        <f>ROUND(E8,4)</f>
+        <v>0.94279999999999997</v>
+      </c>
+      <c r="F15" s="52">
+        <f>ROUND(F8,4)</f>
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="G15" s="53">
+        <f>ROUND(G8,2)</f>
+        <v>34.840000000000003</v>
+      </c>
+      <c r="H15" s="52">
+        <f>ROUND(H8,4)</f>
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="I15" s="54">
+        <f>ROUND(I8,5)</f>
+        <v>4.888E-2</v>
+      </c>
+      <c r="J15" s="54">
+        <f>ROUND(J8,5)</f>
+        <v>6.3000000000000003E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="52"/>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="52"/>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="52"/>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294DF9BF-A0BA-4602-BBE9-E6FCEA5C385D}">
+  <dimension ref="A1:W24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="41"/>
+      <c r="R1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="6"/>
+      <c r="R2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4">
+        <v>0.97865320453161098</v>
+      </c>
+      <c r="D4">
+        <v>1.2190669074549001E-3</v>
+      </c>
+      <c r="E4">
+        <v>38.740329353190198</v>
+      </c>
+      <c r="F4">
+        <v>0.384324596025233</v>
+      </c>
+      <c r="G4">
+        <v>3.1849222640504098E-2</v>
+      </c>
+      <c r="H4" s="33">
+        <v>9.6185954224135102E-4</v>
+      </c>
+      <c r="I4" s="28">
+        <v>0.93395265613830702</v>
+      </c>
+      <c r="J4" s="5">
+        <v>2.9420538124850502E-3</v>
+      </c>
+      <c r="K4" s="5">
+        <v>33.712212390716502</v>
+      </c>
+      <c r="L4" s="21">
+        <v>0.281798821292427</v>
+      </c>
+      <c r="M4" s="21">
+        <v>5.5667151160603397E-2</v>
+      </c>
+      <c r="N4" s="6">
+        <v>9.5328345946582105E-4</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="52" t="str">
+        <f>C13&amp;" ± "&amp;D13</f>
+        <v>0.9787 ± 0.0012</v>
+      </c>
+      <c r="S4" s="52" t="str">
+        <f>E13&amp;" ± "&amp;F13</f>
+        <v>38.74 ± 0.3843</v>
+      </c>
+      <c r="T4" s="52" t="str">
+        <f>G13&amp;" ± "&amp;H13</f>
+        <v>0.03185 ± 0.00096</v>
+      </c>
+      <c r="U4" s="52" t="str">
+        <f>I13&amp;"0 ± "&amp;J13</f>
+        <v>0.9340 ± 0.0029</v>
+      </c>
+      <c r="V4" s="52" t="str">
+        <f>K13&amp;" ± "&amp;L13</f>
+        <v>33.71 ± 0.2818</v>
+      </c>
+      <c r="W4" s="52" t="str">
+        <f>M13&amp;" ± "&amp;N13</f>
+        <v>0.05567 ± 0.00095</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>30</v>
+      </c>
+      <c r="B5" s="16">
+        <v>0</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0.98613538886933705</v>
+      </c>
+      <c r="D5" s="5">
+        <v>6.4040743645354405E-4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>40.315516721469201</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0.35242389853908002</v>
+      </c>
+      <c r="G5" s="21">
+        <v>2.6564304071543001E-2</v>
+      </c>
+      <c r="H5" s="16">
+        <v>7.1385377445386895E-4</v>
+      </c>
+      <c r="I5" s="21">
+        <v>0.86703876258988999</v>
+      </c>
+      <c r="J5" s="21">
+        <v>5.3695413591825798E-3</v>
+      </c>
+      <c r="K5" s="21">
+        <v>28.647436784116699</v>
+      </c>
+      <c r="L5" s="21">
+        <v>0.42524085490510199</v>
+      </c>
+      <c r="M5" s="21">
+        <v>9.9776298405802905E-2</v>
+      </c>
+      <c r="N5" s="6">
+        <v>3.3899335566959601E-3</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="52" t="str">
+        <f>C14&amp;" ± "&amp;D14</f>
+        <v>0.9861 ± 0.0006</v>
+      </c>
+      <c r="S5" s="52" t="str">
+        <f>E14&amp;" ± "&amp;F14</f>
+        <v>40.32 ± 0.3524</v>
+      </c>
+      <c r="T5" s="52" t="str">
+        <f>G14&amp;" ± "&amp;H14</f>
+        <v>0.02656 ± 0.00071</v>
+      </c>
+      <c r="U5" s="52" t="str">
+        <f>I14&amp;"0 ± "&amp;J14</f>
+        <v>0.8670 ± 0.0054</v>
+      </c>
+      <c r="V5" s="52" t="str">
+        <f t="shared" ref="V5:V7" si="0">K14&amp;" ± "&amp;L14</f>
+        <v>28.65 ± 0.4252</v>
+      </c>
+      <c r="W5" s="52" t="str">
+        <f t="shared" ref="W5:W7" si="1">M14&amp;" ± "&amp;N14</f>
+        <v>0.09978 ± 0.00339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>0</v>
+      </c>
+      <c r="B6" s="16">
+        <v>30</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0.96741371305133095</v>
+      </c>
+      <c r="D6" s="21">
+        <v>1.5484757318919701E-3</v>
+      </c>
+      <c r="E6" s="21">
+        <v>36.061484141172201</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0.33963541280156401</v>
+      </c>
+      <c r="G6" s="21">
+        <v>4.3349817339358998E-2</v>
+      </c>
+      <c r="H6" s="16">
+        <v>1.1156841890197699E-3</v>
+      </c>
+      <c r="I6" s="34">
+        <v>0.94154102892533498</v>
+      </c>
+      <c r="J6" s="34">
+        <v>2.71142616793054E-3</v>
+      </c>
+      <c r="K6" s="34">
+        <v>34.887607245847803</v>
+      </c>
+      <c r="L6" s="34">
+        <v>0.24094214535863401</v>
+      </c>
+      <c r="M6" s="34">
+        <v>4.8618812731489498E-2</v>
+      </c>
+      <c r="N6" s="6">
+        <v>6.4714275494098903E-4</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>37</v>
+      </c>
+      <c r="R6" s="52" t="str">
+        <f>C15&amp;" ± "&amp;D15</f>
+        <v>0.9674 ± 0.0015</v>
+      </c>
+      <c r="S6" s="52" t="str">
+        <f>E15&amp;" ± "&amp;F15</f>
+        <v>36.06 ± 0.3396</v>
+      </c>
+      <c r="T6" s="52" t="str">
+        <f>G15&amp;" ± "&amp;H15</f>
+        <v>0.04335 ± 0.00112</v>
+      </c>
+      <c r="U6" s="52" t="str">
+        <f t="shared" ref="U5:U7" si="2">I15&amp;" ± "&amp;J15</f>
+        <v>0.9415 ± 0.0027</v>
+      </c>
+      <c r="V6" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>34.89 ± 0.2409</v>
+      </c>
+      <c r="W6" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>0.04862 ± 0.00065</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>30</v>
+      </c>
+      <c r="B7" s="16">
+        <v>30</v>
+      </c>
+      <c r="C7" s="18">
+        <v>0.97475202137444605</v>
+      </c>
+      <c r="D7" s="21">
+        <v>1.17236871135975E-3</v>
+      </c>
+      <c r="E7" s="21">
+        <v>37.683432041866403</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0.32274574333387701</v>
+      </c>
+      <c r="G7" s="21">
+        <v>3.5966216966542598E-2</v>
+      </c>
+      <c r="H7" s="16">
+        <v>9.4357644759475098E-4</v>
+      </c>
+      <c r="I7" s="34">
+        <v>0.93605071414291796</v>
+      </c>
+      <c r="J7" s="34">
+        <v>2.78736645724399E-3</v>
+      </c>
+      <c r="K7" s="34">
+        <v>33.930105744499897</v>
+      </c>
+      <c r="L7" s="34">
+        <v>0.23611087540123901</v>
+      </c>
+      <c r="M7" s="34">
+        <v>5.4284233495711397E-2</v>
+      </c>
+      <c r="N7" s="6">
+        <v>6.6826685203324597E-4</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7" s="52" t="str">
+        <f>C16&amp;" ± "&amp;D16</f>
+        <v>0.9748 ± 0.0012</v>
+      </c>
+      <c r="S7" s="52" t="str">
+        <f>E16&amp;" ± "&amp;F16</f>
+        <v>37.68 ± 0.3227</v>
+      </c>
+      <c r="T7" s="52" t="str">
+        <f>G16&amp;" ± "&amp;H16</f>
+        <v>0.03597 ± 0.00094</v>
+      </c>
+      <c r="U7" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>0.9361 ± 0.0028</v>
+      </c>
+      <c r="V7" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>33.93 ± 0.2361</v>
+      </c>
+      <c r="W7" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>0.05428 ± 0.00067</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C13" s="52">
+        <f>ROUND(C4,4)</f>
+        <v>0.97870000000000001</v>
+      </c>
+      <c r="D13" s="52">
+        <f>ROUND(D4,4)</f>
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="E13" s="53">
+        <f>ROUND(E4,2)</f>
+        <v>38.74</v>
+      </c>
+      <c r="F13" s="52">
+        <f>ROUND(F4,4)</f>
+        <v>0.38429999999999997</v>
+      </c>
+      <c r="G13" s="54">
+        <f>ROUND(G4,5)</f>
+        <v>3.1850000000000003E-2</v>
+      </c>
+      <c r="H13" s="54">
+        <f>ROUND(H4,5)</f>
+        <v>9.6000000000000002E-4</v>
+      </c>
+      <c r="I13" s="52">
+        <f>ROUND(I4,4)</f>
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="J13" s="52">
+        <f>ROUND(J4,4)</f>
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="K13" s="53">
+        <f>ROUND(K4,2)</f>
+        <v>33.71</v>
+      </c>
+      <c r="L13" s="52">
+        <f>ROUND(L4,4)</f>
+        <v>0.28179999999999999</v>
+      </c>
+      <c r="M13" s="54">
+        <f>ROUND(M4,5)</f>
+        <v>5.5669999999999997E-2</v>
+      </c>
+      <c r="N13" s="54">
+        <f>ROUND(N4,5)</f>
+        <v>9.5E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C14" s="52">
+        <f t="shared" ref="C14:D18" si="3">ROUND(C5,4)</f>
+        <v>0.98609999999999998</v>
+      </c>
+      <c r="D14" s="52">
+        <f t="shared" si="3"/>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="E14" s="53">
+        <f t="shared" ref="E14:E16" si="4">ROUND(E5,2)</f>
+        <v>40.32</v>
+      </c>
+      <c r="F14" s="52">
+        <f t="shared" ref="F14:F16" si="5">ROUND(F5,4)</f>
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="G14" s="54">
+        <f t="shared" ref="G14:H16" si="6">ROUND(G5,5)</f>
+        <v>2.656E-2</v>
+      </c>
+      <c r="H14" s="54">
+        <f t="shared" si="6"/>
+        <v>7.1000000000000002E-4</v>
+      </c>
+      <c r="I14" s="52">
+        <f t="shared" ref="I14:J14" si="7">ROUND(I5,4)</f>
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="J14" s="52">
+        <f t="shared" si="7"/>
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="K14" s="53">
+        <f t="shared" ref="K14:K16" si="8">ROUND(K5,2)</f>
+        <v>28.65</v>
+      </c>
+      <c r="L14" s="52">
+        <f t="shared" ref="L14:L16" si="9">ROUND(L5,4)</f>
+        <v>0.42520000000000002</v>
+      </c>
+      <c r="M14" s="54">
+        <f t="shared" ref="M14:N14" si="10">ROUND(M5,5)</f>
+        <v>9.9779999999999994E-2</v>
+      </c>
+      <c r="N14" s="54">
+        <f t="shared" si="10"/>
+        <v>3.3899999999999998E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C15" s="52">
+        <f t="shared" si="3"/>
+        <v>0.96740000000000004</v>
+      </c>
+      <c r="D15" s="52">
+        <f t="shared" si="3"/>
+        <v>1.5E-3</v>
+      </c>
+      <c r="E15" s="53">
+        <f t="shared" si="4"/>
+        <v>36.06</v>
+      </c>
+      <c r="F15" s="52">
+        <f t="shared" si="5"/>
+        <v>0.33960000000000001</v>
+      </c>
+      <c r="G15" s="54">
+        <f t="shared" si="6"/>
+        <v>4.335E-2</v>
+      </c>
+      <c r="H15" s="54">
+        <f t="shared" si="6"/>
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="I15" s="52">
+        <f t="shared" ref="I15:J15" si="11">ROUND(I6,4)</f>
+        <v>0.9415</v>
+      </c>
+      <c r="J15" s="52">
+        <f t="shared" si="11"/>
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="K15" s="53">
+        <f t="shared" si="8"/>
+        <v>34.89</v>
+      </c>
+      <c r="L15" s="52">
+        <f t="shared" si="9"/>
+        <v>0.2409</v>
+      </c>
+      <c r="M15" s="54">
+        <f t="shared" ref="M15:N15" si="12">ROUND(M6,5)</f>
+        <v>4.8619999999999997E-2</v>
+      </c>
+      <c r="N15" s="54">
+        <f t="shared" si="12"/>
+        <v>6.4999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C16" s="52">
+        <f t="shared" si="3"/>
+        <v>0.9748</v>
+      </c>
+      <c r="D16" s="52">
+        <f t="shared" si="3"/>
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="E16" s="53">
+        <f t="shared" si="4"/>
+        <v>37.68</v>
+      </c>
+      <c r="F16" s="52">
+        <f t="shared" si="5"/>
+        <v>0.32269999999999999</v>
+      </c>
+      <c r="G16" s="54">
+        <f t="shared" si="6"/>
+        <v>3.5970000000000002E-2</v>
+      </c>
+      <c r="H16" s="54">
+        <f t="shared" si="6"/>
+        <v>9.3999999999999997E-4</v>
+      </c>
+      <c r="I16" s="52">
+        <f t="shared" ref="I16:J16" si="13">ROUND(I7,4)</f>
+        <v>0.93610000000000004</v>
+      </c>
+      <c r="J16" s="52">
+        <f t="shared" si="13"/>
+        <v>2.8E-3</v>
+      </c>
+      <c r="K16" s="53">
+        <f t="shared" si="8"/>
+        <v>33.93</v>
+      </c>
+      <c r="L16" s="52">
+        <f t="shared" si="9"/>
+        <v>0.2361</v>
+      </c>
+      <c r="M16" s="54">
+        <f t="shared" ref="M16:N16" si="14">ROUND(M7,5)</f>
+        <v>5.4280000000000002E-2</v>
+      </c>
+      <c r="N16" s="54">
+        <f t="shared" si="14"/>
+        <v>6.7000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="52"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Clouddiensten\Stack\Documenten\01 Eindhoven\01 TU Eindhoven\Master\Afstuderen\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rien\CloudDiensten\Stack\Documenten\01 Eindhoven\01 TU Eindhoven\Master\Afstuderen\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7E156F-5A72-4483-BEF5-253070890324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BA9DC5-B3A6-42BB-9C1E-DB87E75C2060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{467F7A0A-60A9-453F-A0E0-556BFBB296AA}"/>
+    <workbookView xWindow="57480" yWindow="6420" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{467F7A0A-60A9-453F-A0E0-556BFBB296AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="45">
   <si>
     <t>Experiment 1</t>
   </si>
@@ -119,15 +119,9 @@
     <t>Baseline</t>
   </si>
   <si>
-    <t>Baseline + adversarial</t>
-  </si>
-  <si>
     <t>Baseline + perceptual</t>
   </si>
   <si>
-    <t>Baseline + both</t>
-  </si>
-  <si>
     <t>SSIM ↑</t>
   </si>
   <si>
@@ -153,6 +147,30 @@
   </si>
   <si>
     <t>HCP and Sim</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>RaSGAN</t>
+  </si>
+  <si>
+    <t>WGAN</t>
+  </si>
+  <si>
+    <t>Baseline + RaSGAN</t>
+  </si>
+  <si>
+    <t>Baseline + WGAN</t>
+  </si>
+  <si>
+    <t>Baseline + perceptual + RaSGAN</t>
+  </si>
+  <si>
+    <t>Baseline + perceptual + WGAN</t>
   </si>
 </sst>
 </file>
@@ -440,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -472,14 +490,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -510,19 +532,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -538,7 +557,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -836,18 +855,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB04E715-0E69-48D7-923A-0C5886B5EFC8}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -855,7 +874,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -863,7 +882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -871,7 +890,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -879,7 +898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -887,27 +906,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="41"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="47"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
       <c r="E7" s="5" t="s">
         <v>5</v>
       </c>
@@ -921,7 +940,7 @@
       </c>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>1</v>
       </c>
@@ -953,13 +972,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="28">
         <v>0.93395265613830702</v>
       </c>
@@ -979,7 +998,7 @@
         <v>9.5328345946582105E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>0.7</v>
       </c>
@@ -1011,7 +1030,7 @@
         <v>2.4414506059491099E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>0.7</v>
       </c>
@@ -1043,7 +1062,7 @@
         <v>6.5133560854454197E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>0.7</v>
       </c>
@@ -1075,7 +1094,7 @@
         <v>6.6123680887165905E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8">
         <v>0.7</v>
       </c>
@@ -1107,7 +1126,7 @@
         <v>6.3036153601249401E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1115,7 +1134,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1132,7 +1151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1149,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1166,7 +1185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1183,35 +1202,35 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="14"/>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="40" t="s">
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="41"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="47"/>
       <c r="P23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="39"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="18" t="s">
         <v>5</v>
       </c>
@@ -1237,7 +1256,7 @@
       </c>
       <c r="N24" s="6"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>14</v>
       </c>
@@ -1281,11 +1300,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="36"/>
+      <c r="B26" s="42"/>
       <c r="C26">
         <v>0.97865320453161098</v>
       </c>
@@ -1301,7 +1320,7 @@
       <c r="G26">
         <v>3.1849222640504098E-2</v>
       </c>
-      <c r="H26" s="33">
+      <c r="H26" s="31">
         <v>9.6185954224135102E-4</v>
       </c>
       <c r="I26" s="28">
@@ -1323,7 +1342,7 @@
         <v>9.5328345946582105E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>30</v>
       </c>
@@ -1367,7 +1386,7 @@
         <v>3.3899335566959601E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
         <v>0</v>
       </c>
@@ -1392,26 +1411,26 @@
       <c r="H28" s="16">
         <v>1.1156841890197699E-3</v>
       </c>
-      <c r="I28" s="34">
+      <c r="I28" s="32">
         <v>0.94154102892533498</v>
       </c>
-      <c r="J28" s="34">
+      <c r="J28" s="32">
         <v>2.71142616793054E-3</v>
       </c>
-      <c r="K28" s="34">
+      <c r="K28" s="32">
         <v>34.887607245847803</v>
       </c>
-      <c r="L28" s="34">
+      <c r="L28" s="32">
         <v>0.24094214535863401</v>
       </c>
-      <c r="M28" s="34">
+      <c r="M28" s="32">
         <v>4.8618812731489498E-2</v>
       </c>
       <c r="N28" s="6">
         <v>6.4714275494098903E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
         <v>30</v>
       </c>
@@ -1436,26 +1455,26 @@
       <c r="H29" s="16">
         <v>9.4357644759475098E-4</v>
       </c>
-      <c r="I29" s="34">
+      <c r="I29" s="32">
         <v>0.93605071414291796</v>
       </c>
-      <c r="J29" s="34">
+      <c r="J29" s="32">
         <v>2.78736645724399E-3</v>
       </c>
-      <c r="K29" s="34">
+      <c r="K29" s="32">
         <v>33.930105744499897</v>
       </c>
-      <c r="L29" s="34">
+      <c r="L29" s="32">
         <v>0.23611087540123901</v>
       </c>
-      <c r="M29" s="34">
+      <c r="M29" s="32">
         <v>5.4284233495711397E-2</v>
       </c>
       <c r="N29" s="6">
         <v>6.6826685203324597E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="7"/>
       <c r="B30" s="16"/>
       <c r="C30" s="18"/>
@@ -1471,7 +1490,7 @@
       <c r="M30" s="5"/>
       <c r="N30" s="6"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="7"/>
       <c r="B31" s="16"/>
       <c r="C31" s="18"/>
@@ -1487,7 +1506,7 @@
       <c r="M31" s="5"/>
       <c r="N31" s="6"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="8"/>
       <c r="B32" s="17"/>
       <c r="C32" s="19"/>
@@ -1520,163 +1539,172 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4D7490-FBDC-4F9E-BA9E-23A2CA096201}">
-  <dimension ref="A1:Y29"/>
+  <dimension ref="A1:Z31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="M2" sqref="M2:P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="12" max="12" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="31" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="M1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A2" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="5" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="5"/>
+      <c r="J2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="L2" t="s">
+      <c r="K2" s="5"/>
+      <c r="M2" t="s">
         <v>25</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
         <v>30</v>
       </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="G3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="H3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="K3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="52" t="str">
-        <f>E11&amp;"0 ± "&amp;F11</f>
+      <c r="N3" s="38" t="str">
+        <f>F13&amp;"0 ± "&amp;G13</f>
         <v>0.9340 ± 0.0029</v>
       </c>
-      <c r="N3" s="52" t="str">
-        <f>G11&amp;" ± "&amp;H11</f>
+      <c r="O3" s="38" t="str">
+        <f>H13&amp;" ± "&amp;I13</f>
         <v>33.71 ± 0.2818</v>
       </c>
-      <c r="O3" s="52" t="str">
-        <f>I11&amp;" ± "&amp;J11</f>
+      <c r="P3" s="38" t="str">
+        <f>J13&amp;" ± "&amp;K13</f>
         <v>0.05567 ± 0.00095</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A4" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="28">
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="28">
         <v>0.93395265613830702</v>
       </c>
-      <c r="F4" s="28">
+      <c r="G4" s="28">
         <v>2.9420538124850502E-3</v>
       </c>
-      <c r="G4" s="46">
+      <c r="H4" s="35">
         <v>33.712212390716502</v>
       </c>
-      <c r="H4" s="22">
+      <c r="I4" s="22">
         <v>0.281798821292427</v>
       </c>
-      <c r="I4" s="21">
+      <c r="J4" s="21">
         <v>5.5667151160603397E-2</v>
       </c>
-      <c r="J4" s="50">
+      <c r="K4" s="53">
         <v>9.5328345946582105E-4</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="53" t="str">
-        <f>E12&amp;" ± "&amp;F12&amp;"0"</f>
+      <c r="N4" s="39" t="str">
+        <f>F14&amp;" ± "&amp;G14&amp;"0"</f>
         <v>0.9619 ± 0.0020</v>
       </c>
-      <c r="N4" s="52" t="str">
-        <f>G12&amp;" ± "&amp;H12</f>
+      <c r="O4" s="38" t="str">
+        <f>H14&amp;" ± "&amp;I14</f>
         <v>36.14 ± 0.6102</v>
       </c>
-      <c r="O4" s="52" t="str">
-        <f>I12&amp;" ± "&amp;J12</f>
+      <c r="P4" s="38" t="str">
+        <f>J14&amp;" ± "&amp;K14</f>
         <v>0.04215 ± 0.00244</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
         <v>0.7</v>
       </c>
       <c r="B5" s="5">
@@ -1685,45 +1713,48 @@
       <c r="C5" s="5">
         <v>0</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="5">
         <v>0</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="24">
         <v>0.96193014094930696</v>
       </c>
-      <c r="F5" s="26">
+      <c r="G5" s="26">
         <v>2.0378893891147402E-3</v>
       </c>
-      <c r="G5" s="47">
+      <c r="H5" s="36">
         <v>36.141604121887703</v>
       </c>
-      <c r="H5" s="26">
+      <c r="I5" s="26">
         <v>0.61015832883822296</v>
       </c>
-      <c r="I5" s="25">
+      <c r="J5" s="25">
         <v>4.2151142499425497E-2</v>
       </c>
-      <c r="J5" s="51">
+      <c r="K5" s="54">
         <v>2.4414506059491099E-3</v>
       </c>
-      <c r="L5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="52" t="str">
-        <f>E13&amp;" ± "&amp;F13</f>
+      <c r="M5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="38" t="str">
+        <f>F15&amp;" ± "&amp;G15</f>
         <v>0.9502 ± 0.0023</v>
       </c>
-      <c r="N5" s="52" t="str">
-        <f>G13&amp;" ± "&amp;H13</f>
+      <c r="O5" s="38" t="str">
+        <f>H15&amp;" ± "&amp;I15</f>
         <v>35.82 ± 0.2633</v>
       </c>
-      <c r="O5" s="52" t="str">
-        <f>I13&amp;" ± "&amp;J13</f>
+      <c r="P5" s="38" t="str">
+        <f>J15&amp;" ± "&amp;K15</f>
         <v>0.04367 ± 0.00065</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
         <v>0.7</v>
       </c>
       <c r="B6" s="5">
@@ -1732,46 +1763,49 @@
       <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="5">
         <v>0</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="22">
         <v>0.95021300498626904</v>
       </c>
-      <c r="F6" s="22">
+      <c r="G6" s="22">
         <v>2.3349034316965298E-3</v>
       </c>
-      <c r="G6" s="48">
+      <c r="H6" s="37">
         <v>35.819949409747103</v>
       </c>
-      <c r="H6" s="22">
+      <c r="I6" s="22">
         <v>0.26333616443114799</v>
       </c>
-      <c r="I6" s="21">
+      <c r="J6" s="21">
         <v>4.3671416102453897E-2</v>
       </c>
-      <c r="J6" s="50">
+      <c r="K6" s="53">
         <v>6.5133560854454197E-4</v>
       </c>
-      <c r="L6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="52" t="str">
-        <f>E14&amp;" ± "&amp;F14</f>
-        <v>0.9452 ± 0.0025</v>
-      </c>
-      <c r="N6" s="52" t="str">
-        <f>G14&amp;"0 ± "&amp;H14</f>
-        <v>35.10 ± 0.2524</v>
-      </c>
-      <c r="O6" s="52" t="str">
-        <f>I14&amp;" ± "&amp;J14</f>
-        <v>0.04747 ± 0.00066</v>
-      </c>
-      <c r="Y6" s="45"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="M6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="38" t="str">
+        <f>F16&amp;" ± "&amp;G16</f>
+        <v>0.9475 ± 0.0026</v>
+      </c>
+      <c r="O6" s="38" t="str">
+        <f>H16&amp;" ± "&amp;I16</f>
+        <v>35.18 ± 0.2803</v>
+      </c>
+      <c r="P6" s="38" t="str">
+        <f>J16&amp;" ± "&amp;K16</f>
+        <v>0.04702 ± 0.00078</v>
+      </c>
+      <c r="Z6" s="34"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
         <v>0.7</v>
       </c>
       <c r="B7" s="5">
@@ -1780,226 +1814,384 @@
       <c r="C7" s="5">
         <v>0</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="5">
         <v>0.1</v>
       </c>
-      <c r="E7" s="22">
-        <v>0.94519342165907705</v>
+      <c r="E7" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="F7" s="22">
-        <v>2.5310582666105501E-3</v>
-      </c>
-      <c r="G7" s="48">
-        <v>35.096214071912797</v>
-      </c>
-      <c r="H7" s="22">
-        <v>0.25236841518528103</v>
-      </c>
-      <c r="I7" s="21">
-        <v>4.7465468192798801E-2</v>
-      </c>
-      <c r="J7" s="50">
-        <v>6.6123680887165905E-4</v>
-      </c>
-      <c r="L7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="52" t="str">
-        <f>E15&amp;" ± "&amp;F15</f>
-        <v>0.9428 ± 0.0026</v>
-      </c>
-      <c r="N7" s="52" t="str">
-        <f>G15&amp;" ± "&amp;H15&amp;"0"</f>
-        <v>34.84 ± 0.2390</v>
-      </c>
-      <c r="O7" s="52" t="str">
-        <f>I15&amp;" ± "&amp;J15</f>
-        <v>0.04888 ± 0.00063</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+        <v>0.94746606655476195</v>
+      </c>
+      <c r="G7" s="22">
+        <v>2.6051113293130098E-3</v>
+      </c>
+      <c r="H7" s="37">
+        <v>35.179023292174399</v>
+      </c>
+      <c r="I7" s="22">
+        <v>0.28025960470030598</v>
+      </c>
+      <c r="J7" s="22">
+        <v>4.70170985375154E-2</v>
+      </c>
+      <c r="K7" s="53">
+        <v>7.8456176402553405E-4</v>
+      </c>
+      <c r="M7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="38" t="str">
+        <f>F17&amp;" ± "&amp;G17</f>
+        <v>0.9427 ± 0.0026</v>
+      </c>
+      <c r="O7" s="38" t="str">
+        <f t="shared" ref="O7:O8" si="0">H17&amp;" ± "&amp;I17</f>
+        <v>35.18 ± 0.2402</v>
+      </c>
+      <c r="P7" s="38" t="str">
+        <f>J17&amp;" ± "&amp;K17</f>
+        <v>0.04703 ± 0.00059</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
         <v>0.7</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="5">
         <v>0.3</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0.94265751955688004</v>
+      </c>
+      <c r="G8" s="22">
+        <v>2.58041474429029E-3</v>
+      </c>
+      <c r="H8" s="37">
+        <v>35.175265894996102</v>
+      </c>
+      <c r="I8" s="22">
+        <v>0.24020551241308899</v>
+      </c>
+      <c r="J8" s="22">
+        <v>4.7034584494654197E-2</v>
+      </c>
+      <c r="K8" s="53">
+        <v>5.9086485001875696E-4</v>
+      </c>
+      <c r="M8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="38" t="str">
+        <f t="shared" ref="N8:N9" si="1">F18&amp;" ± "&amp;G18</f>
+        <v>0.9412 ± 0.0027</v>
+      </c>
+      <c r="O8" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>34.71 ± 0.2454</v>
+      </c>
+      <c r="P8" s="38" t="str">
+        <f t="shared" ref="P8:P9" si="2">J18&amp;" ± "&amp;K18</f>
+        <v>0.04962 ± 0.00068</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="C9" s="5">
         <v>1</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D9" s="21">
         <v>0.1</v>
       </c>
-      <c r="E8" s="23">
-        <v>0.94278755772430201</v>
-      </c>
-      <c r="F8" s="23">
-        <v>2.5972124473301801E-3</v>
-      </c>
-      <c r="G8" s="49">
-        <v>34.840224980059403</v>
-      </c>
-      <c r="H8" s="29">
-        <v>0.23896000256801</v>
-      </c>
-      <c r="I8" s="9">
-        <v>4.8884485129473097E-2</v>
-      </c>
-      <c r="J8" s="30">
-        <v>6.3036153601249401E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E11" s="52">
-        <f>ROUND(E4,4)</f>
+      <c r="E9" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="22">
+        <v>0.94117420003919905</v>
+      </c>
+      <c r="G9" s="22">
+        <v>2.73180163553806E-3</v>
+      </c>
+      <c r="H9" s="37">
+        <v>34.710563158329201</v>
+      </c>
+      <c r="I9" s="22">
+        <v>0.24537939155548999</v>
+      </c>
+      <c r="J9" s="22">
+        <v>4.96201720050976E-2</v>
+      </c>
+      <c r="K9" s="53">
+        <v>6.7543232681285196E-4</v>
+      </c>
+      <c r="M9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>0.9402 ± 0.0028</v>
+      </c>
+      <c r="O9" s="38" t="str">
+        <f>H19&amp;" ± "&amp;I19</f>
+        <v>34.69 ± 0.2413</v>
+      </c>
+      <c r="P9" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v>0.04977 ± 0.00066</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="28">
+        <v>0.94015636237892497</v>
+      </c>
+      <c r="G10" s="28">
+        <v>2.7563748680607099E-3</v>
+      </c>
+      <c r="H10" s="35">
+        <v>34.685198823613703</v>
+      </c>
+      <c r="I10" s="51">
+        <v>0.24134593670704299</v>
+      </c>
+      <c r="J10" s="26">
+        <v>4.9765113644064003E-2</v>
+      </c>
+      <c r="K10" s="55">
+        <v>6.64771349095182E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="F13" s="38">
+        <f>ROUND(F4,4)</f>
         <v>0.93400000000000005</v>
       </c>
-      <c r="F11" s="52">
-        <f>ROUND(F4,4)</f>
+      <c r="G13" s="38">
+        <f>ROUND(G4,4)</f>
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="G11" s="53">
-        <f>ROUND(G4,2)</f>
+      <c r="H13" s="39">
+        <f>ROUND(H4,2)</f>
         <v>33.71</v>
       </c>
-      <c r="H11" s="52">
-        <f>ROUND(H4,4)</f>
+      <c r="I13" s="38">
+        <f>ROUND(I4,4)</f>
         <v>0.28179999999999999</v>
       </c>
-      <c r="I11" s="54">
-        <f>ROUND(I4,5)</f>
+      <c r="J13" s="40">
+        <f>ROUND(J4,5)</f>
         <v>5.5669999999999997E-2</v>
       </c>
-      <c r="J11" s="54">
-        <f>ROUND(J4,5)</f>
+      <c r="K13" s="40">
+        <f>ROUND(K4,5)</f>
         <v>9.5E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E12" s="52">
-        <f>ROUND(E5,4)</f>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="F14" s="38">
+        <f>ROUND(F5,4)</f>
         <v>0.96189999999999998</v>
       </c>
-      <c r="F12" s="52">
-        <f>ROUND(F5,4)</f>
+      <c r="G14" s="38">
+        <f>ROUND(G5,4)</f>
         <v>2E-3</v>
       </c>
-      <c r="G12" s="53">
-        <f>ROUND(G5,2)</f>
+      <c r="H14" s="39">
+        <f>ROUND(H5,2)</f>
         <v>36.14</v>
       </c>
-      <c r="H12" s="52">
-        <f>ROUND(H5,4)</f>
+      <c r="I14" s="38">
+        <f>ROUND(I5,4)</f>
         <v>0.61019999999999996</v>
       </c>
-      <c r="I12" s="54">
-        <f>ROUND(I5,5)</f>
+      <c r="J14" s="40">
+        <f>ROUND(J5,5)</f>
         <v>4.215E-2</v>
       </c>
-      <c r="J12" s="54">
-        <f>ROUND(J5,5)</f>
+      <c r="K14" s="40">
+        <f>ROUND(K5,5)</f>
         <v>2.4399999999999999E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E13" s="52">
-        <f>ROUND(E6,4)</f>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="F15" s="38">
+        <f>ROUND(F6,4)</f>
         <v>0.95020000000000004</v>
       </c>
-      <c r="F13" s="52">
-        <f>ROUND(F6,4)</f>
+      <c r="G15" s="38">
+        <f>ROUND(G6,4)</f>
         <v>2.3E-3</v>
       </c>
-      <c r="G13" s="53">
-        <f>ROUND(G6,2)</f>
+      <c r="H15" s="39">
+        <f>ROUND(H6,2)</f>
         <v>35.82</v>
       </c>
-      <c r="H13" s="52">
-        <f>ROUND(H6,4)</f>
+      <c r="I15" s="38">
+        <f>ROUND(I6,4)</f>
         <v>0.26329999999999998</v>
       </c>
-      <c r="I13" s="54">
-        <f>ROUND(I6,5)</f>
+      <c r="J15" s="40">
+        <f>ROUND(J6,5)</f>
         <v>4.367E-2</v>
       </c>
-      <c r="J13" s="54">
-        <f>ROUND(J6,5)</f>
+      <c r="K15" s="40">
+        <f>ROUND(K6,5)</f>
         <v>6.4999999999999997E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E14" s="52">
-        <f>ROUND(E7,4)</f>
-        <v>0.94520000000000004</v>
-      </c>
-      <c r="F14" s="52">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="F16" s="38">
         <f>ROUND(F7,4)</f>
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="G14" s="53">
-        <f>ROUND(G7,2)</f>
-        <v>35.1</v>
-      </c>
-      <c r="H14" s="52">
-        <f>ROUND(H7,4)</f>
-        <v>0.25240000000000001</v>
-      </c>
-      <c r="I14" s="54">
-        <f>ROUND(I7,5)</f>
-        <v>4.7469999999999998E-2</v>
-      </c>
-      <c r="J14" s="54">
+        <v>0.94750000000000001</v>
+      </c>
+      <c r="G16" s="38">
+        <f>ROUND(G7,4)</f>
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="H16" s="39">
+        <f>ROUND(H7,2)</f>
+        <v>35.18</v>
+      </c>
+      <c r="I16" s="38">
+        <f>ROUND(I7,4)</f>
+        <v>0.28029999999999999</v>
+      </c>
+      <c r="J16" s="40">
         <f>ROUND(J7,5)</f>
+        <v>4.7019999999999999E-2</v>
+      </c>
+      <c r="K16" s="40">
+        <f>ROUND(K7,5)</f>
+        <v>7.7999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F17" s="38">
+        <f t="shared" ref="F17:G17" si="3">ROUND(F8,4)</f>
+        <v>0.94269999999999998</v>
+      </c>
+      <c r="G17" s="38">
+        <f t="shared" si="3"/>
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="H17" s="39">
+        <f t="shared" ref="H17:H19" si="4">ROUND(H8,2)</f>
+        <v>35.18</v>
+      </c>
+      <c r="I17" s="38">
+        <f t="shared" ref="I17:I19" si="5">ROUND(I8,4)</f>
+        <v>0.2402</v>
+      </c>
+      <c r="J17" s="40">
+        <f t="shared" ref="J17:K17" si="6">ROUND(J8,5)</f>
+        <v>4.7030000000000002E-2</v>
+      </c>
+      <c r="K17" s="40">
+        <f t="shared" si="6"/>
+        <v>5.9000000000000003E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F18" s="38">
+        <f t="shared" ref="F18:G18" si="7">ROUND(F9,4)</f>
+        <v>0.94120000000000004</v>
+      </c>
+      <c r="G18" s="38">
+        <f t="shared" si="7"/>
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="H18" s="39">
+        <f t="shared" si="4"/>
+        <v>34.71</v>
+      </c>
+      <c r="I18" s="38">
+        <f t="shared" si="5"/>
+        <v>0.24540000000000001</v>
+      </c>
+      <c r="J18" s="40">
+        <f t="shared" ref="J18:K18" si="8">ROUND(J9,5)</f>
+        <v>4.9619999999999997E-2</v>
+      </c>
+      <c r="K18" s="40">
+        <f t="shared" si="8"/>
+        <v>6.8000000000000005E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F19" s="38">
+        <f t="shared" ref="F19:G19" si="9">ROUND(F10,4)</f>
+        <v>0.94020000000000004</v>
+      </c>
+      <c r="G19" s="38">
+        <f t="shared" si="9"/>
+        <v>2.8E-3</v>
+      </c>
+      <c r="H19" s="39">
+        <f t="shared" si="4"/>
+        <v>34.69</v>
+      </c>
+      <c r="I19" s="38">
+        <f t="shared" si="5"/>
+        <v>0.24129999999999999</v>
+      </c>
+      <c r="J19" s="40">
+        <f t="shared" ref="J19:K19" si="10">ROUND(J10,5)</f>
+        <v>4.9770000000000002E-2</v>
+      </c>
+      <c r="K19" s="40">
+        <f t="shared" si="10"/>
         <v>6.6E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E15" s="52">
-        <f>ROUND(E8,4)</f>
-        <v>0.94279999999999997</v>
-      </c>
-      <c r="F15" s="52">
-        <f>ROUND(F8,4)</f>
-        <v>2.5999999999999999E-3</v>
-      </c>
-      <c r="G15" s="53">
-        <f>ROUND(G8,2)</f>
-        <v>34.840000000000003</v>
-      </c>
-      <c r="H15" s="52">
-        <f>ROUND(H8,4)</f>
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="I15" s="54">
-        <f>ROUND(I8,5)</f>
-        <v>4.888E-2</v>
-      </c>
-      <c r="J15" s="54">
-        <f>ROUND(J8,5)</f>
-        <v>6.3000000000000003E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E26" s="52"/>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E27" s="52"/>
-    </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E28" s="52"/>
-    </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E29" s="52"/>
+    <row r="28" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F28" s="38"/>
+    </row>
+    <row r="29" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F29" s="38"/>
+    </row>
+    <row r="30" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F30" s="38"/>
+    </row>
+    <row r="31" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F31" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2010,60 +2202,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294DF9BF-A0BA-4602-BBE9-E6FCEA5C385D}">
   <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
       <c r="B1" s="14"/>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="40" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="41"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="47"/>
       <c r="R1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A2" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="G2" s="5"/>
       <c r="H2" s="16"/>
       <c r="I2" s="5" t="s">
         <v>5</v>
@@ -2084,7 +2272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
@@ -2128,32 +2316,32 @@
         <v>21</v>
       </c>
       <c r="Q3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" t="s">
         <v>30</v>
       </c>
-      <c r="S3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T3" t="s">
-        <v>32</v>
-      </c>
       <c r="U3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W3" t="s">
         <v>30</v>
       </c>
-      <c r="V3" t="s">
-        <v>31</v>
-      </c>
-      <c r="W3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="42"/>
       <c r="C4">
         <v>0.97865320453161098</v>
       </c>
@@ -2169,7 +2357,7 @@
       <c r="G4">
         <v>3.1849222640504098E-2</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="31">
         <v>9.6185954224135102E-4</v>
       </c>
       <c r="I4" s="28">
@@ -2193,32 +2381,32 @@
       <c r="Q4" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="52" t="str">
+      <c r="R4" s="38" t="str">
         <f>C13&amp;" ± "&amp;D13</f>
         <v>0.9787 ± 0.0012</v>
       </c>
-      <c r="S4" s="52" t="str">
+      <c r="S4" s="38" t="str">
         <f>E13&amp;" ± "&amp;F13</f>
         <v>38.74 ± 0.3843</v>
       </c>
-      <c r="T4" s="52" t="str">
+      <c r="T4" s="38" t="str">
         <f>G13&amp;" ± "&amp;H13</f>
         <v>0.03185 ± 0.00096</v>
       </c>
-      <c r="U4" s="52" t="str">
+      <c r="U4" s="38" t="str">
         <f>I13&amp;"0 ± "&amp;J13</f>
         <v>0.9340 ± 0.0029</v>
       </c>
-      <c r="V4" s="52" t="str">
+      <c r="V4" s="38" t="str">
         <f>K13&amp;" ± "&amp;L13</f>
         <v>33.71 ± 0.2818</v>
       </c>
-      <c r="W4" s="52" t="str">
+      <c r="W4" s="38" t="str">
         <f>M13&amp;" ± "&amp;N13</f>
         <v>0.05567 ± 0.00095</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>30</v>
       </c>
@@ -2226,70 +2414,70 @@
         <v>0</v>
       </c>
       <c r="C5" s="18">
-        <v>0.98613538886933705</v>
-      </c>
-      <c r="D5" s="5">
-        <v>6.4040743645354405E-4</v>
-      </c>
-      <c r="E5" s="5">
-        <v>40.315516721469201</v>
+        <v>0.99358902069029298</v>
+      </c>
+      <c r="D5" s="21">
+        <v>3.0606778575671001E-4</v>
+      </c>
+      <c r="E5" s="21">
+        <v>43.524044186714498</v>
       </c>
       <c r="F5" s="21">
-        <v>0.35242389853908002</v>
+        <v>0.35885724479491099</v>
       </c>
       <c r="G5" s="21">
-        <v>2.6564304071543001E-2</v>
+        <v>1.83608984102804E-2</v>
       </c>
       <c r="H5" s="16">
-        <v>7.1385377445386895E-4</v>
-      </c>
-      <c r="I5" s="21">
-        <v>0.86703876258988999</v>
-      </c>
-      <c r="J5" s="21">
-        <v>5.3695413591825798E-3</v>
-      </c>
-      <c r="K5" s="21">
-        <v>28.647436784116699</v>
-      </c>
-      <c r="L5" s="21">
-        <v>0.42524085490510199</v>
-      </c>
-      <c r="M5" s="21">
-        <v>9.9776298405802905E-2</v>
+        <v>5.2741672651467205E-4</v>
+      </c>
+      <c r="I5" s="32">
+        <v>0.70114836218905596</v>
+      </c>
+      <c r="J5" s="32">
+        <v>1.10568267807025E-2</v>
+      </c>
+      <c r="K5" s="32">
+        <v>19.401862956529399</v>
+      </c>
+      <c r="L5" s="32">
+        <v>0.36800782744885502</v>
+      </c>
+      <c r="M5" s="32">
+        <v>0.28921800555418298</v>
       </c>
       <c r="N5" s="6">
-        <v>3.3899335566959601E-3</v>
+        <v>8.1594105965921097E-3</v>
       </c>
       <c r="Q5" t="s">
-        <v>36</v>
-      </c>
-      <c r="R5" s="52" t="str">
+        <v>34</v>
+      </c>
+      <c r="R5" s="38" t="str">
         <f>C14&amp;" ± "&amp;D14</f>
-        <v>0.9861 ± 0.0006</v>
-      </c>
-      <c r="S5" s="52" t="str">
+        <v>0.9936 ± 0.0003</v>
+      </c>
+      <c r="S5" s="38" t="str">
         <f>E14&amp;" ± "&amp;F14</f>
-        <v>40.32 ± 0.3524</v>
-      </c>
-      <c r="T5" s="52" t="str">
+        <v>43.52 ± 0.3589</v>
+      </c>
+      <c r="T5" s="38" t="str">
         <f>G14&amp;" ± "&amp;H14</f>
-        <v>0.02656 ± 0.00071</v>
-      </c>
-      <c r="U5" s="52" t="str">
-        <f>I14&amp;"0 ± "&amp;J14</f>
-        <v>0.8670 ± 0.0054</v>
-      </c>
-      <c r="V5" s="52" t="str">
-        <f t="shared" ref="V5:V7" si="0">K14&amp;" ± "&amp;L14</f>
-        <v>28.65 ± 0.4252</v>
-      </c>
-      <c r="W5" s="52" t="str">
-        <f t="shared" ref="W5:W7" si="1">M14&amp;" ± "&amp;N14</f>
-        <v>0.09978 ± 0.00339</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0.01836 ± 0.00053</v>
+      </c>
+      <c r="U5" s="38" t="str">
+        <f>I14&amp;" ± "&amp;J14</f>
+        <v>0.7011 ± 0.0111</v>
+      </c>
+      <c r="V5" s="38" t="str">
+        <f>K14&amp;"0 ± "&amp;L14&amp;"0"</f>
+        <v>19.40 ± 0.3680</v>
+      </c>
+      <c r="W5" s="38" t="str">
+        <f t="shared" ref="W5:W7" si="0">M14&amp;" ± "&amp;N14</f>
+        <v>0.28922 ± 0.00816</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>0</v>
       </c>
@@ -2297,70 +2485,70 @@
         <v>30</v>
       </c>
       <c r="C6" s="18">
-        <v>0.96741371305133095</v>
+        <v>0.96868291771128501</v>
       </c>
       <c r="D6" s="21">
-        <v>1.5484757318919701E-3</v>
+        <v>1.55913382133008E-3</v>
       </c>
       <c r="E6" s="21">
-        <v>36.061484141172201</v>
+        <v>36.035745523927403</v>
       </c>
       <c r="F6" s="21">
-        <v>0.33963541280156401</v>
+        <v>0.39678289698761798</v>
       </c>
       <c r="G6" s="21">
-        <v>4.3349817339358998E-2</v>
+        <v>4.3485006713559197E-2</v>
       </c>
       <c r="H6" s="16">
-        <v>1.1156841890197699E-3</v>
-      </c>
-      <c r="I6" s="34">
-        <v>0.94154102892533498</v>
-      </c>
-      <c r="J6" s="34">
-        <v>2.71142616793054E-3</v>
-      </c>
-      <c r="K6" s="34">
-        <v>34.887607245847803</v>
-      </c>
-      <c r="L6" s="34">
-        <v>0.24094214535863401</v>
-      </c>
-      <c r="M6" s="34">
-        <v>4.8618812731489498E-2</v>
+        <v>1.3396352523636799E-3</v>
+      </c>
+      <c r="I6" s="32">
+        <v>0.94015636237892497</v>
+      </c>
+      <c r="J6" s="32">
+        <v>2.7563748680607099E-3</v>
+      </c>
+      <c r="K6" s="32">
+        <v>34.685198823613703</v>
+      </c>
+      <c r="L6" s="32">
+        <v>0.24134593670704299</v>
+      </c>
+      <c r="M6" s="32">
+        <v>4.9765113644064003E-2</v>
       </c>
       <c r="N6" s="6">
-        <v>6.4714275494098903E-4</v>
+        <v>6.64771349095182E-4</v>
       </c>
       <c r="Q6" t="s">
-        <v>37</v>
-      </c>
-      <c r="R6" s="52" t="str">
+        <v>35</v>
+      </c>
+      <c r="R6" s="38" t="str">
         <f>C15&amp;" ± "&amp;D15</f>
-        <v>0.9674 ± 0.0015</v>
-      </c>
-      <c r="S6" s="52" t="str">
+        <v>0.9687 ± 0.0016</v>
+      </c>
+      <c r="S6" s="38" t="str">
         <f>E15&amp;" ± "&amp;F15</f>
-        <v>36.06 ± 0.3396</v>
-      </c>
-      <c r="T6" s="52" t="str">
+        <v>36.04 ± 0.3968</v>
+      </c>
+      <c r="T6" s="38" t="str">
         <f>G15&amp;" ± "&amp;H15</f>
-        <v>0.04335 ± 0.00112</v>
-      </c>
-      <c r="U6" s="52" t="str">
-        <f t="shared" ref="U5:U7" si="2">I15&amp;" ± "&amp;J15</f>
-        <v>0.9415 ± 0.0027</v>
-      </c>
-      <c r="V6" s="52" t="str">
+        <v>0.04349 ± 0.00134</v>
+      </c>
+      <c r="U6" s="38" t="str">
+        <f t="shared" ref="U6:U7" si="1">I15&amp;" ± "&amp;J15</f>
+        <v>0.9402 ± 0.0028</v>
+      </c>
+      <c r="V6" s="38" t="str">
+        <f t="shared" ref="V5:V7" si="2">K15&amp;" ± "&amp;L15</f>
+        <v>34.69 ± 0.2413</v>
+      </c>
+      <c r="W6" s="38" t="str">
         <f t="shared" si="0"/>
-        <v>34.89 ± 0.2409</v>
-      </c>
-      <c r="W6" s="52" t="str">
-        <f t="shared" si="1"/>
-        <v>0.04862 ± 0.00065</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0.04977 ± 0.00066</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>30</v>
       </c>
@@ -2368,70 +2556,70 @@
         <v>30</v>
       </c>
       <c r="C7" s="18">
-        <v>0.97475202137444605</v>
+        <v>0.99306839441791905</v>
       </c>
       <c r="D7" s="21">
-        <v>1.17236871135975E-3</v>
+        <v>3.5722121139249602E-4</v>
       </c>
       <c r="E7" s="21">
-        <v>37.683432041866403</v>
+        <v>43.289590558337302</v>
       </c>
       <c r="F7" s="21">
-        <v>0.32274574333387701</v>
+        <v>0.32190844921298101</v>
       </c>
       <c r="G7" s="21">
-        <v>3.5966216966542598E-2</v>
+        <v>1.8862406712386402E-2</v>
       </c>
       <c r="H7" s="16">
-        <v>9.4357644759475098E-4</v>
-      </c>
-      <c r="I7" s="34">
-        <v>0.93605071414291796</v>
-      </c>
-      <c r="J7" s="34">
-        <v>2.78736645724399E-3</v>
-      </c>
-      <c r="K7" s="34">
-        <v>33.930105744499897</v>
-      </c>
-      <c r="L7" s="34">
-        <v>0.23611087540123901</v>
-      </c>
-      <c r="M7" s="34">
-        <v>5.4284233495711397E-2</v>
+        <v>5.1336832737636597E-4</v>
+      </c>
+      <c r="I7" s="32">
+        <v>0.94014225521042905</v>
+      </c>
+      <c r="J7" s="32">
+        <v>2.59435398570073E-3</v>
+      </c>
+      <c r="K7" s="32">
+        <v>34.641307378889799</v>
+      </c>
+      <c r="L7" s="32">
+        <v>0.22442304807906899</v>
+      </c>
+      <c r="M7" s="32">
+        <v>5.0015903263687898E-2</v>
       </c>
       <c r="N7" s="6">
-        <v>6.6826685203324597E-4</v>
+        <v>5.6176750053787701E-4</v>
       </c>
       <c r="Q7" t="s">
-        <v>38</v>
-      </c>
-      <c r="R7" s="52" t="str">
+        <v>36</v>
+      </c>
+      <c r="R7" s="38" t="str">
         <f>C16&amp;" ± "&amp;D16</f>
-        <v>0.9748 ± 0.0012</v>
-      </c>
-      <c r="S7" s="52" t="str">
+        <v>0.9931 ± 0.0004</v>
+      </c>
+      <c r="S7" s="38" t="str">
         <f>E16&amp;" ± "&amp;F16</f>
-        <v>37.68 ± 0.3227</v>
-      </c>
-      <c r="T7" s="52" t="str">
+        <v>43.29 ± 0.3219</v>
+      </c>
+      <c r="T7" s="38" t="str">
         <f>G16&amp;" ± "&amp;H16</f>
-        <v>0.03597 ± 0.00094</v>
-      </c>
-      <c r="U7" s="52" t="str">
+        <v>0.01886 ± 0.00051</v>
+      </c>
+      <c r="U7" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>0.9401 ± 0.0026</v>
+      </c>
+      <c r="V7" s="38" t="str">
         <f t="shared" si="2"/>
-        <v>0.9361 ± 0.0028</v>
-      </c>
-      <c r="V7" s="52" t="str">
+        <v>34.64 ± 0.2244</v>
+      </c>
+      <c r="W7" s="38" t="str">
         <f t="shared" si="0"/>
-        <v>33.93 ± 0.2361</v>
-      </c>
-      <c r="W7" s="52" t="str">
-        <f t="shared" si="1"/>
-        <v>0.05428 ± 0.00067</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0.05002 ± 0.00056</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="16"/>
       <c r="C8" s="18"/>
@@ -2447,7 +2635,7 @@
       <c r="M8" s="5"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="16"/>
       <c r="C9" s="18"/>
@@ -2463,7 +2651,7 @@
       <c r="M9" s="5"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8"/>
       <c r="B10" s="17"/>
       <c r="C10" s="19"/>
@@ -2479,216 +2667,216 @@
       <c r="M10" s="9"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C13" s="52">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="C13" s="38">
         <f>ROUND(C4,4)</f>
         <v>0.97870000000000001</v>
       </c>
-      <c r="D13" s="52">
+      <c r="D13" s="38">
         <f>ROUND(D4,4)</f>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="E13" s="53">
+      <c r="E13" s="39">
         <f>ROUND(E4,2)</f>
         <v>38.74</v>
       </c>
-      <c r="F13" s="52">
+      <c r="F13" s="38">
         <f>ROUND(F4,4)</f>
         <v>0.38429999999999997</v>
       </c>
-      <c r="G13" s="54">
+      <c r="G13" s="40">
         <f>ROUND(G4,5)</f>
         <v>3.1850000000000003E-2</v>
       </c>
-      <c r="H13" s="54">
+      <c r="H13" s="40">
         <f>ROUND(H4,5)</f>
         <v>9.6000000000000002E-4</v>
       </c>
-      <c r="I13" s="52">
+      <c r="I13" s="38">
         <f>ROUND(I4,4)</f>
         <v>0.93400000000000005</v>
       </c>
-      <c r="J13" s="52">
+      <c r="J13" s="38">
         <f>ROUND(J4,4)</f>
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="K13" s="53">
+      <c r="K13" s="39">
         <f>ROUND(K4,2)</f>
         <v>33.71</v>
       </c>
-      <c r="L13" s="52">
+      <c r="L13" s="38">
         <f>ROUND(L4,4)</f>
         <v>0.28179999999999999</v>
       </c>
-      <c r="M13" s="54">
+      <c r="M13" s="40">
         <f>ROUND(M4,5)</f>
         <v>5.5669999999999997E-2</v>
       </c>
-      <c r="N13" s="54">
+      <c r="N13" s="40">
         <f>ROUND(N4,5)</f>
         <v>9.5E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C14" s="52">
-        <f t="shared" ref="C14:D18" si="3">ROUND(C5,4)</f>
-        <v>0.98609999999999998</v>
-      </c>
-      <c r="D14" s="52">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="C14" s="38">
+        <f t="shared" ref="C14:D16" si="3">ROUND(C5,4)</f>
+        <v>0.99360000000000004</v>
+      </c>
+      <c r="D14" s="38">
         <f t="shared" si="3"/>
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="E14" s="53">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E14" s="39">
         <f t="shared" ref="E14:E16" si="4">ROUND(E5,2)</f>
-        <v>40.32</v>
-      </c>
-      <c r="F14" s="52">
+        <v>43.52</v>
+      </c>
+      <c r="F14" s="38">
         <f t="shared" ref="F14:F16" si="5">ROUND(F5,4)</f>
-        <v>0.35239999999999999</v>
-      </c>
-      <c r="G14" s="54">
+        <v>0.3589</v>
+      </c>
+      <c r="G14" s="40">
         <f t="shared" ref="G14:H16" si="6">ROUND(G5,5)</f>
-        <v>2.656E-2</v>
-      </c>
-      <c r="H14" s="54">
+        <v>1.8360000000000001E-2</v>
+      </c>
+      <c r="H14" s="40">
         <f t="shared" si="6"/>
-        <v>7.1000000000000002E-4</v>
-      </c>
-      <c r="I14" s="52">
+        <v>5.2999999999999998E-4</v>
+      </c>
+      <c r="I14" s="38">
         <f t="shared" ref="I14:J14" si="7">ROUND(I5,4)</f>
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="J14" s="52">
+        <v>0.70109999999999995</v>
+      </c>
+      <c r="J14" s="38">
         <f t="shared" si="7"/>
-        <v>5.4000000000000003E-3</v>
-      </c>
-      <c r="K14" s="53">
+        <v>1.11E-2</v>
+      </c>
+      <c r="K14" s="39">
         <f t="shared" ref="K14:K16" si="8">ROUND(K5,2)</f>
-        <v>28.65</v>
-      </c>
-      <c r="L14" s="52">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="L14" s="38">
         <f t="shared" ref="L14:L16" si="9">ROUND(L5,4)</f>
-        <v>0.42520000000000002</v>
-      </c>
-      <c r="M14" s="54">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="M14" s="40">
         <f t="shared" ref="M14:N14" si="10">ROUND(M5,5)</f>
-        <v>9.9779999999999994E-2</v>
-      </c>
-      <c r="N14" s="54">
+        <v>0.28921999999999998</v>
+      </c>
+      <c r="N14" s="40">
         <f t="shared" si="10"/>
-        <v>3.3899999999999998E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C15" s="52">
+        <v>8.1600000000000006E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="C15" s="38">
         <f t="shared" si="3"/>
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="D15" s="52">
+        <v>0.96870000000000001</v>
+      </c>
+      <c r="D15" s="38">
         <f t="shared" si="3"/>
-        <v>1.5E-3</v>
-      </c>
-      <c r="E15" s="53">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="E15" s="39">
         <f t="shared" si="4"/>
-        <v>36.06</v>
-      </c>
-      <c r="F15" s="52">
+        <v>36.04</v>
+      </c>
+      <c r="F15" s="38">
         <f t="shared" si="5"/>
-        <v>0.33960000000000001</v>
-      </c>
-      <c r="G15" s="54">
+        <v>0.39679999999999999</v>
+      </c>
+      <c r="G15" s="40">
         <f t="shared" si="6"/>
-        <v>4.335E-2</v>
-      </c>
-      <c r="H15" s="54">
+        <v>4.3490000000000001E-2</v>
+      </c>
+      <c r="H15" s="40">
         <f t="shared" si="6"/>
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="I15" s="52">
+        <v>1.34E-3</v>
+      </c>
+      <c r="I15" s="38">
         <f t="shared" ref="I15:J15" si="11">ROUND(I6,4)</f>
-        <v>0.9415</v>
-      </c>
-      <c r="J15" s="52">
+        <v>0.94020000000000004</v>
+      </c>
+      <c r="J15" s="38">
         <f t="shared" si="11"/>
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="K15" s="53">
+        <v>2.8E-3</v>
+      </c>
+      <c r="K15" s="39">
         <f t="shared" si="8"/>
-        <v>34.89</v>
-      </c>
-      <c r="L15" s="52">
+        <v>34.69</v>
+      </c>
+      <c r="L15" s="38">
         <f t="shared" si="9"/>
-        <v>0.2409</v>
-      </c>
-      <c r="M15" s="54">
+        <v>0.24129999999999999</v>
+      </c>
+      <c r="M15" s="40">
         <f t="shared" ref="M15:N15" si="12">ROUND(M6,5)</f>
-        <v>4.8619999999999997E-2</v>
-      </c>
-      <c r="N15" s="54">
+        <v>4.9770000000000002E-2</v>
+      </c>
+      <c r="N15" s="40">
         <f t="shared" si="12"/>
-        <v>6.4999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C16" s="52">
+        <v>6.6E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="C16" s="38">
         <f t="shared" si="3"/>
-        <v>0.9748</v>
-      </c>
-      <c r="D16" s="52">
+        <v>0.99309999999999998</v>
+      </c>
+      <c r="D16" s="38">
         <f t="shared" si="3"/>
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="E16" s="53">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E16" s="39">
         <f t="shared" si="4"/>
-        <v>37.68</v>
-      </c>
-      <c r="F16" s="52">
+        <v>43.29</v>
+      </c>
+      <c r="F16" s="38">
         <f t="shared" si="5"/>
-        <v>0.32269999999999999</v>
-      </c>
-      <c r="G16" s="54">
+        <v>0.32190000000000002</v>
+      </c>
+      <c r="G16" s="40">
         <f t="shared" si="6"/>
-        <v>3.5970000000000002E-2</v>
-      </c>
-      <c r="H16" s="54">
+        <v>1.8859999999999998E-2</v>
+      </c>
+      <c r="H16" s="40">
         <f t="shared" si="6"/>
-        <v>9.3999999999999997E-4</v>
-      </c>
-      <c r="I16" s="52">
+        <v>5.1000000000000004E-4</v>
+      </c>
+      <c r="I16" s="38">
         <f t="shared" ref="I16:J16" si="13">ROUND(I7,4)</f>
-        <v>0.93610000000000004</v>
-      </c>
-      <c r="J16" s="52">
+        <v>0.94010000000000005</v>
+      </c>
+      <c r="J16" s="38">
         <f t="shared" si="13"/>
-        <v>2.8E-3</v>
-      </c>
-      <c r="K16" s="53">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="K16" s="39">
         <f t="shared" si="8"/>
-        <v>33.93</v>
-      </c>
-      <c r="L16" s="52">
+        <v>34.64</v>
+      </c>
+      <c r="L16" s="38">
         <f t="shared" si="9"/>
-        <v>0.2361</v>
-      </c>
-      <c r="M16" s="54">
+        <v>0.22439999999999999</v>
+      </c>
+      <c r="M16" s="40">
         <f t="shared" ref="M16:N16" si="14">ROUND(M7,5)</f>
-        <v>5.4280000000000002E-2</v>
-      </c>
-      <c r="N16" s="54">
+        <v>5.0020000000000002E-2</v>
+      </c>
+      <c r="N16" s="40">
         <f t="shared" si="14"/>
-        <v>6.7000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="52"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="52"/>
+        <v>5.5999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C17" s="38"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C24" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2698,5 +2886,6 @@
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rien\CloudDiensten\Stack\Documenten\01 Eindhoven\01 TU Eindhoven\Master\Afstuderen\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Clouddiensten\Stack\Documenten\01 Eindhoven\01 TU Eindhoven\Master\Afstuderen\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BA9DC5-B3A6-42BB-9C1E-DB87E75C2060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E44258-E353-45A4-A916-781BB33FAC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="6420" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{467F7A0A-60A9-453F-A0E0-556BFBB296AA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{467F7A0A-60A9-453F-A0E0-556BFBB296AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Exp1" sheetId="4" r:id="rId2"/>
+    <sheet name="Exp1 - old" sheetId="2" r:id="rId3"/>
+    <sheet name="exp2a" sheetId="5" r:id="rId4"/>
+    <sheet name="exp2a - old" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="45">
   <si>
     <t>Experiment 1</t>
   </si>
@@ -177,9 +179,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="170" formatCode="0.000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -458,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -502,6 +505,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -532,16 +542,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -557,7 +567,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -859,14 +869,14 @@
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.81640625" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -874,7 +884,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -882,7 +892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -890,7 +900,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -898,7 +908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -906,27 +916,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="47"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="43" t="s">
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="52"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="45"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="50"/>
       <c r="E7" s="5" t="s">
         <v>5</v>
       </c>
@@ -940,7 +950,7 @@
       </c>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>1</v>
       </c>
@@ -972,13 +982,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="50" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="47"/>
       <c r="E9" s="28">
         <v>0.93395265613830702</v>
       </c>
@@ -998,7 +1008,7 @@
         <v>9.5328345946582105E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>0.7</v>
       </c>
@@ -1030,7 +1040,7 @@
         <v>2.4414506059491099E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>0.7</v>
       </c>
@@ -1062,7 +1072,7 @@
         <v>6.5133560854454197E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>0.7</v>
       </c>
@@ -1094,7 +1104,7 @@
         <v>6.6123680887165905E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>0.7</v>
       </c>
@@ -1126,7 +1136,7 @@
         <v>6.3036153601249401E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1134,7 +1144,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1151,7 +1161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1168,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1185,7 +1195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1202,35 +1212,35 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="14"/>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="46" t="s">
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="47"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="52"/>
       <c r="P23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A24" s="43" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="45"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="18" t="s">
         <v>5</v>
       </c>
@@ -1256,7 +1266,7 @@
       </c>
       <c r="N24" s="6"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>14</v>
       </c>
@@ -1300,11 +1310,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A26" s="41" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="42"/>
+      <c r="B26" s="47"/>
       <c r="C26">
         <v>0.97865320453161098</v>
       </c>
@@ -1342,7 +1352,7 @@
         <v>9.5328345946582105E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>30</v>
       </c>
@@ -1386,7 +1396,7 @@
         <v>3.3899335566959601E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>0</v>
       </c>
@@ -1430,7 +1440,7 @@
         <v>6.4714275494098903E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>30</v>
       </c>
@@ -1474,7 +1484,7 @@
         <v>6.6826685203324597E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="16"/>
       <c r="C30" s="18"/>
@@ -1490,7 +1500,7 @@
       <c r="M30" s="5"/>
       <c r="N30" s="6"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="16"/>
       <c r="C31" s="18"/>
@@ -1506,7 +1516,7 @@
       <c r="M31" s="5"/>
       <c r="N31" s="6"/>
     </row>
-    <row r="32" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="17"/>
       <c r="C32" s="19"/>
@@ -1538,54 +1548,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4D7490-FBDC-4F9E-BA9E-23A2CA096201}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8389D56-F318-48F8-B00F-95B262D00133}">
   <dimension ref="A1:Z31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:P9"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
       <c r="N1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="33"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1611,7 +1621,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1649,61 +1659,61 @@
         <v>24</v>
       </c>
       <c r="N3" s="38" t="str">
-        <f>F13&amp;"0 ± "&amp;G13</f>
-        <v>0.9340 ± 0.0029</v>
+        <f>F13&amp;" ± "&amp;G13</f>
+        <v>0.9353 ± 0.0024</v>
       </c>
       <c r="O3" s="38" t="str">
         <f>H13&amp;" ± "&amp;I13</f>
-        <v>33.71 ± 0.2818</v>
+        <v>32.97 ± 0.2009</v>
       </c>
       <c r="P3" s="38" t="str">
         <f>J13&amp;" ± "&amp;K13</f>
-        <v>0.05567 ± 0.00095</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A4" s="52" t="s">
+        <v>0.06123 ± 0.00098</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
       <c r="F4" s="28">
-        <v>0.93395265613830702</v>
+        <v>0.935290588464321</v>
       </c>
       <c r="G4" s="28">
-        <v>2.9420538124850502E-3</v>
+        <v>2.39507803036199E-3</v>
       </c>
       <c r="H4" s="35">
-        <v>33.712212390716502</v>
+        <v>32.970284457357899</v>
       </c>
       <c r="I4" s="22">
-        <v>0.281798821292427</v>
-      </c>
-      <c r="J4" s="21">
-        <v>5.5667151160603397E-2</v>
-      </c>
-      <c r="K4" s="53">
-        <v>9.5328345946582105E-4</v>
+        <v>0.20088939637075701</v>
+      </c>
+      <c r="J4" s="22">
+        <v>6.12348366535529E-2</v>
+      </c>
+      <c r="K4" s="43">
+        <v>9.8242063777570997E-4</v>
       </c>
       <c r="M4" t="s">
         <v>26</v>
       </c>
       <c r="N4" s="39" t="str">
-        <f>F14&amp;" ± "&amp;G14&amp;"0"</f>
-        <v>0.9619 ± 0.0020</v>
+        <f>F14&amp;" ± "&amp;G14</f>
+        <v>0.9639 ± 0.0015</v>
       </c>
       <c r="O4" s="38" t="str">
         <f>H14&amp;" ± "&amp;I14</f>
-        <v>36.14 ± 0.6102</v>
+        <v>35.62 ± 0.5215</v>
       </c>
       <c r="P4" s="38" t="str">
         <f>J14&amp;" ± "&amp;K14</f>
-        <v>0.04215 ± 0.00244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+        <v>0.04519 ± 0.00233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>0.7</v>
       </c>
@@ -1720,40 +1730,40 @@
         <v>38</v>
       </c>
       <c r="F5" s="24">
-        <v>0.96193014094930696</v>
+        <v>0.963878274832073</v>
       </c>
       <c r="G5" s="26">
-        <v>2.0378893891147402E-3</v>
+        <v>1.49911922723598E-3</v>
       </c>
       <c r="H5" s="36">
-        <v>36.141604121887703</v>
+        <v>35.6191044180907</v>
       </c>
       <c r="I5" s="26">
-        <v>0.61015832883822296</v>
-      </c>
-      <c r="J5" s="25">
-        <v>4.2151142499425497E-2</v>
-      </c>
-      <c r="K5" s="54">
-        <v>2.4414506059491099E-3</v>
+        <v>0.52147720109723095</v>
+      </c>
+      <c r="J5" s="24">
+        <v>4.5194850612784498E-2</v>
+      </c>
+      <c r="K5" s="44">
+        <v>2.32859070238282E-3</v>
       </c>
       <c r="M5" t="s">
         <v>27</v>
       </c>
       <c r="N5" s="38" t="str">
         <f>F15&amp;" ± "&amp;G15</f>
-        <v>0.9502 ± 0.0023</v>
+        <v>0.9528 ± 0.0018</v>
       </c>
       <c r="O5" s="38" t="str">
         <f>H15&amp;" ± "&amp;I15</f>
-        <v>35.82 ± 0.2633</v>
+        <v>35.19 ± 0.1942</v>
       </c>
       <c r="P5" s="38" t="str">
         <f>J15&amp;" ± "&amp;K15</f>
-        <v>0.04367 ± 0.00065</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+        <v>0.04744 ± 0.00066</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>0.7</v>
       </c>
@@ -1770,41 +1780,41 @@
         <v>38</v>
       </c>
       <c r="F6" s="22">
-        <v>0.95021300498626904</v>
+        <v>0.95277306734518297</v>
       </c>
       <c r="G6" s="22">
-        <v>2.3349034316965298E-3</v>
+        <v>1.8340950069250499E-3</v>
       </c>
       <c r="H6" s="37">
-        <v>35.819949409747103</v>
+        <v>35.186471794453901</v>
       </c>
       <c r="I6" s="22">
-        <v>0.26333616443114799</v>
-      </c>
-      <c r="J6" s="21">
-        <v>4.3671416102453897E-2</v>
-      </c>
-      <c r="K6" s="53">
-        <v>6.5133560854454197E-4</v>
+        <v>0.19417439708467699</v>
+      </c>
+      <c r="J6" s="22">
+        <v>4.7443331977701703E-2</v>
+      </c>
+      <c r="K6" s="43">
+        <v>6.5552989582707503E-4</v>
       </c>
       <c r="M6" t="s">
         <v>41</v>
       </c>
       <c r="N6" s="38" t="str">
         <f>F16&amp;" ± "&amp;G16</f>
-        <v>0.9475 ± 0.0026</v>
+        <v>0.9496 ± 0.0019</v>
       </c>
       <c r="O6" s="38" t="str">
         <f>H16&amp;" ± "&amp;I16</f>
-        <v>35.18 ± 0.2803</v>
+        <v>34.51 ± 0.2046</v>
       </c>
       <c r="P6" s="38" t="str">
         <f>J16&amp;" ± "&amp;K16</f>
-        <v>0.04702 ± 0.00078</v>
+        <v>0.05129 ± 0.00077</v>
       </c>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>0.7</v>
       </c>
@@ -1821,40 +1831,40 @@
         <v>39</v>
       </c>
       <c r="F7" s="22">
-        <v>0.94746606655476195</v>
+        <v>0.94962711480149298</v>
       </c>
       <c r="G7" s="22">
-        <v>2.6051113293130098E-3</v>
+        <v>1.9378402611046699E-3</v>
       </c>
       <c r="H7" s="37">
-        <v>35.179023292174399</v>
+        <v>34.509337753278899</v>
       </c>
       <c r="I7" s="22">
-        <v>0.28025960470030598</v>
+        <v>0.204603596469493</v>
       </c>
       <c r="J7" s="22">
-        <v>4.70170985375154E-2</v>
-      </c>
-      <c r="K7" s="53">
-        <v>7.8456176402553405E-4</v>
+        <v>5.1290821018945401E-2</v>
+      </c>
+      <c r="K7" s="43">
+        <v>7.7195210449246005E-4</v>
       </c>
       <c r="M7" t="s">
         <v>42</v>
       </c>
       <c r="N7" s="38" t="str">
         <f>F17&amp;" ± "&amp;G17</f>
-        <v>0.9427 ± 0.0026</v>
+        <v>0.9459 ± 0.0023</v>
       </c>
       <c r="O7" s="38" t="str">
         <f t="shared" ref="O7:O8" si="0">H17&amp;" ± "&amp;I17</f>
-        <v>35.18 ± 0.2402</v>
+        <v>34.58 ± 0.1843</v>
       </c>
       <c r="P7" s="38" t="str">
         <f>J17&amp;" ± "&amp;K17</f>
-        <v>0.04703 ± 0.00059</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+        <v>0.05088 ± 0.00062</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>0.7</v>
       </c>
@@ -1871,40 +1881,40 @@
         <v>40</v>
       </c>
       <c r="F8" s="22">
-        <v>0.94265751955688004</v>
+        <v>0.94589475401307499</v>
       </c>
       <c r="G8" s="22">
-        <v>2.58041474429029E-3</v>
+        <v>2.2951736886123101E-3</v>
       </c>
       <c r="H8" s="37">
-        <v>35.175265894996102</v>
+        <v>34.578161045097303</v>
       </c>
       <c r="I8" s="22">
-        <v>0.24020551241308899</v>
+        <v>0.184257521116729</v>
       </c>
       <c r="J8" s="22">
-        <v>4.7034584494654197E-2</v>
-      </c>
-      <c r="K8" s="53">
-        <v>5.9086485001875696E-4</v>
+        <v>5.0883990517169603E-2</v>
+      </c>
+      <c r="K8" s="43">
+        <v>6.1707212848438999E-4</v>
       </c>
       <c r="M8" t="s">
         <v>43</v>
       </c>
       <c r="N8" s="38" t="str">
         <f t="shared" ref="N8:N9" si="1">F18&amp;" ± "&amp;G18</f>
-        <v>0.9412 ± 0.0027</v>
+        <v>0.9437 ± 0.0023</v>
       </c>
       <c r="O8" s="38" t="str">
         <f t="shared" si="0"/>
-        <v>34.71 ± 0.2454</v>
+        <v>34.05 ± 0.1955</v>
       </c>
       <c r="P8" s="38" t="str">
         <f t="shared" ref="P8:P9" si="2">J18&amp;" ± "&amp;K18</f>
-        <v>0.04962 ± 0.00068</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+        <v>0.05405 ± 0.00071</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>0.7</v>
       </c>
@@ -1921,40 +1931,40 @@
         <v>39</v>
       </c>
       <c r="F9" s="22">
-        <v>0.94117420003919905</v>
+        <v>0.94369948831447903</v>
       </c>
       <c r="G9" s="22">
-        <v>2.73180163553806E-3</v>
+        <v>2.2706011668476799E-3</v>
       </c>
       <c r="H9" s="37">
-        <v>34.710563158329201</v>
+        <v>34.053485801718203</v>
       </c>
       <c r="I9" s="22">
-        <v>0.24537939155548999</v>
+        <v>0.195510671721875</v>
       </c>
       <c r="J9" s="22">
-        <v>4.96201720050976E-2</v>
-      </c>
-      <c r="K9" s="53">
-        <v>6.7543232681285196E-4</v>
+        <v>5.4053085980761001E-2</v>
+      </c>
+      <c r="K9" s="43">
+        <v>7.1164973798040299E-4</v>
       </c>
       <c r="M9" t="s">
         <v>44</v>
       </c>
       <c r="N9" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>0.9402 ± 0.0028</v>
+        <v>0.9429 ± 0.0023</v>
       </c>
       <c r="O9" s="38" t="str">
         <f>H19&amp;" ± "&amp;I19</f>
-        <v>34.69 ± 0.2413</v>
+        <v>34.05 ± 0.1935</v>
       </c>
       <c r="P9" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v>0.04977 ± 0.00066</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+        <f>J19&amp;" ± "&amp;K19&amp;"0"</f>
+        <v>0.05406 ± 0.00070</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>0.7</v>
       </c>
@@ -1971,221 +1981,221 @@
         <v>40</v>
       </c>
       <c r="F10" s="28">
-        <v>0.94015636237892497</v>
+        <v>0.94285067025132296</v>
       </c>
       <c r="G10" s="28">
-        <v>2.7563748680607099E-3</v>
+        <v>2.30588093068798E-3</v>
       </c>
       <c r="H10" s="35">
-        <v>34.685198823613703</v>
-      </c>
-      <c r="I10" s="51">
-        <v>0.24134593670704299</v>
+        <v>34.0525827289595</v>
+      </c>
+      <c r="I10" s="42">
+        <v>0.19352493059988701</v>
       </c>
       <c r="J10" s="26">
-        <v>4.9765113644064003E-2</v>
-      </c>
-      <c r="K10" s="55">
-        <v>6.64771349095182E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+        <v>5.4058511610824103E-2</v>
+      </c>
+      <c r="K10" s="45">
+        <v>6.9655830460831395E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F13" s="38">
-        <f>ROUND(F4,4)</f>
-        <v>0.93400000000000005</v>
+        <f t="shared" ref="F13:G19" si="3">ROUND(F4,4)</f>
+        <v>0.93530000000000002</v>
       </c>
       <c r="G13" s="38">
-        <f>ROUND(G4,4)</f>
-        <v>2.8999999999999998E-3</v>
+        <f t="shared" si="3"/>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="H13" s="39">
         <f>ROUND(H4,2)</f>
-        <v>33.71</v>
+        <v>32.97</v>
       </c>
       <c r="I13" s="38">
         <f>ROUND(I4,4)</f>
-        <v>0.28179999999999999</v>
+        <v>0.2009</v>
       </c>
       <c r="J13" s="40">
-        <f>ROUND(J4,5)</f>
-        <v>5.5669999999999997E-2</v>
+        <f t="shared" ref="J13:K19" si="4">ROUND(J4,5)</f>
+        <v>6.123E-2</v>
       </c>
       <c r="K13" s="40">
-        <f>ROUND(K4,5)</f>
-        <v>9.5E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>9.7999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F14" s="38">
-        <f>ROUND(F5,4)</f>
-        <v>0.96189999999999998</v>
+        <f t="shared" si="3"/>
+        <v>0.96389999999999998</v>
       </c>
       <c r="G14" s="38">
-        <f>ROUND(G5,4)</f>
-        <v>2E-3</v>
+        <f t="shared" si="3"/>
+        <v>1.5E-3</v>
       </c>
       <c r="H14" s="39">
         <f>ROUND(H5,2)</f>
-        <v>36.14</v>
+        <v>35.619999999999997</v>
       </c>
       <c r="I14" s="38">
         <f>ROUND(I5,4)</f>
-        <v>0.61019999999999996</v>
+        <v>0.52149999999999996</v>
       </c>
       <c r="J14" s="40">
-        <f>ROUND(J5,5)</f>
-        <v>4.215E-2</v>
+        <f t="shared" si="4"/>
+        <v>4.5190000000000001E-2</v>
       </c>
       <c r="K14" s="40">
-        <f>ROUND(K5,5)</f>
-        <v>2.4399999999999999E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>2.33E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F15" s="38">
-        <f>ROUND(F6,4)</f>
-        <v>0.95020000000000004</v>
+        <f t="shared" si="3"/>
+        <v>0.95279999999999998</v>
       </c>
       <c r="G15" s="38">
-        <f>ROUND(G6,4)</f>
-        <v>2.3E-3</v>
+        <f t="shared" si="3"/>
+        <v>1.8E-3</v>
       </c>
       <c r="H15" s="39">
         <f>ROUND(H6,2)</f>
-        <v>35.82</v>
+        <v>35.19</v>
       </c>
       <c r="I15" s="38">
         <f>ROUND(I6,4)</f>
-        <v>0.26329999999999998</v>
+        <v>0.19420000000000001</v>
       </c>
       <c r="J15" s="40">
-        <f>ROUND(J6,5)</f>
-        <v>4.367E-2</v>
+        <f t="shared" si="4"/>
+        <v>4.7440000000000003E-2</v>
       </c>
       <c r="K15" s="40">
-        <f>ROUND(K6,5)</f>
-        <v>6.4999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>6.6E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F16" s="38">
-        <f>ROUND(F7,4)</f>
-        <v>0.94750000000000001</v>
+        <f t="shared" si="3"/>
+        <v>0.9496</v>
       </c>
       <c r="G16" s="38">
-        <f>ROUND(G7,4)</f>
-        <v>2.5999999999999999E-3</v>
+        <f t="shared" si="3"/>
+        <v>1.9E-3</v>
       </c>
       <c r="H16" s="39">
         <f>ROUND(H7,2)</f>
-        <v>35.18</v>
+        <v>34.51</v>
       </c>
       <c r="I16" s="38">
         <f>ROUND(I7,4)</f>
-        <v>0.28029999999999999</v>
+        <v>0.2046</v>
       </c>
       <c r="J16" s="40">
-        <f>ROUND(J7,5)</f>
-        <v>4.7019999999999999E-2</v>
+        <f t="shared" si="4"/>
+        <v>5.1290000000000002E-2</v>
       </c>
       <c r="K16" s="40">
-        <f>ROUND(K7,5)</f>
-        <v>7.7999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="6:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>7.6999999999999996E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F17" s="38">
-        <f t="shared" ref="F17:G17" si="3">ROUND(F8,4)</f>
-        <v>0.94269999999999998</v>
+        <f t="shared" si="3"/>
+        <v>0.94589999999999996</v>
       </c>
       <c r="G17" s="38">
         <f t="shared" si="3"/>
-        <v>2.5999999999999999E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="H17" s="39">
-        <f t="shared" ref="H17:H19" si="4">ROUND(H8,2)</f>
-        <v>35.18</v>
+        <f t="shared" ref="H17:H19" si="5">ROUND(H8,2)</f>
+        <v>34.58</v>
       </c>
       <c r="I17" s="38">
-        <f t="shared" ref="I17:I19" si="5">ROUND(I8,4)</f>
-        <v>0.2402</v>
+        <f t="shared" ref="I17:I19" si="6">ROUND(I8,4)</f>
+        <v>0.18429999999999999</v>
       </c>
       <c r="J17" s="40">
-        <f t="shared" ref="J17:K17" si="6">ROUND(J8,5)</f>
-        <v>4.7030000000000002E-2</v>
+        <f t="shared" si="4"/>
+        <v>5.0880000000000002E-2</v>
       </c>
       <c r="K17" s="40">
+        <f t="shared" si="4"/>
+        <v>6.2E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F18" s="38">
+        <f t="shared" si="3"/>
+        <v>0.94369999999999998</v>
+      </c>
+      <c r="G18" s="38">
+        <f t="shared" si="3"/>
+        <v>2.3E-3</v>
+      </c>
+      <c r="H18" s="39">
+        <f t="shared" si="5"/>
+        <v>34.049999999999997</v>
+      </c>
+      <c r="I18" s="38">
         <f t="shared" si="6"/>
-        <v>5.9000000000000003E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="6:11" x14ac:dyDescent="0.35">
-      <c r="F18" s="38">
-        <f t="shared" ref="F18:G18" si="7">ROUND(F9,4)</f>
-        <v>0.94120000000000004</v>
-      </c>
-      <c r="G18" s="38">
-        <f t="shared" si="7"/>
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="H18" s="39">
+        <v>0.19550000000000001</v>
+      </c>
+      <c r="J18" s="40">
         <f t="shared" si="4"/>
-        <v>34.71</v>
-      </c>
-      <c r="I18" s="38">
+        <v>5.4050000000000001E-2</v>
+      </c>
+      <c r="K18" s="40">
+        <f t="shared" si="4"/>
+        <v>7.1000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F19" s="38">
+        <f t="shared" si="3"/>
+        <v>0.94289999999999996</v>
+      </c>
+      <c r="G19" s="38">
+        <f t="shared" si="3"/>
+        <v>2.3E-3</v>
+      </c>
+      <c r="H19" s="39">
         <f t="shared" si="5"/>
-        <v>0.24540000000000001</v>
-      </c>
-      <c r="J18" s="40">
-        <f t="shared" ref="J18:K18" si="8">ROUND(J9,5)</f>
-        <v>4.9619999999999997E-2</v>
-      </c>
-      <c r="K18" s="40">
-        <f t="shared" si="8"/>
-        <v>6.8000000000000005E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="6:11" x14ac:dyDescent="0.35">
-      <c r="F19" s="38">
-        <f t="shared" ref="F19:G19" si="9">ROUND(F10,4)</f>
-        <v>0.94020000000000004</v>
-      </c>
-      <c r="G19" s="38">
-        <f t="shared" si="9"/>
-        <v>2.8E-3</v>
-      </c>
-      <c r="H19" s="39">
+        <v>34.049999999999997</v>
+      </c>
+      <c r="I19" s="38">
+        <f t="shared" si="6"/>
+        <v>0.19350000000000001</v>
+      </c>
+      <c r="J19" s="40">
         <f t="shared" si="4"/>
-        <v>34.69</v>
-      </c>
-      <c r="I19" s="38">
-        <f t="shared" si="5"/>
-        <v>0.24129999999999999</v>
-      </c>
-      <c r="J19" s="40">
-        <f t="shared" ref="J19:K19" si="10">ROUND(J10,5)</f>
-        <v>4.9770000000000002E-2</v>
+        <v>5.4059999999999997E-2</v>
       </c>
       <c r="K19" s="40">
-        <f t="shared" si="10"/>
-        <v>6.6E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="6:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F28" s="38"/>
     </row>
-    <row r="29" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F29" s="38"/>
     </row>
-    <row r="30" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F30" s="38"/>
     </row>
-    <row r="31" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F31" s="38"/>
     </row>
   </sheetData>
@@ -2199,52 +2209,713 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294DF9BF-A0BA-4602-BBE9-E6FCEA5C385D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4D7490-FBDC-4F9E-BA9E-23A2CA096201}">
+  <dimension ref="A1:Z31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="38" t="str">
+        <f>F13&amp;"0 ± "&amp;G13</f>
+        <v>0.9340 ± 0.0029</v>
+      </c>
+      <c r="O3" s="38" t="str">
+        <f>H13&amp;" ± "&amp;I13</f>
+        <v>33.71 ± 0.2818</v>
+      </c>
+      <c r="P3" s="38" t="str">
+        <f>J13&amp;" ± "&amp;K13</f>
+        <v>0.05567 ± 0.00095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="28">
+        <v>0.93395265613830702</v>
+      </c>
+      <c r="G4" s="28">
+        <v>2.9420538124850502E-3</v>
+      </c>
+      <c r="H4" s="35">
+        <v>33.712212390716502</v>
+      </c>
+      <c r="I4" s="22">
+        <v>0.281798821292427</v>
+      </c>
+      <c r="J4" s="21">
+        <v>5.5667151160603397E-2</v>
+      </c>
+      <c r="K4" s="43">
+        <v>9.5328345946582105E-4</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="39" t="str">
+        <f>F14&amp;" ± "&amp;G14&amp;"0"</f>
+        <v>0.9619 ± 0.0020</v>
+      </c>
+      <c r="O4" s="38" t="str">
+        <f>H14&amp;" ± "&amp;I14</f>
+        <v>36.14 ± 0.6102</v>
+      </c>
+      <c r="P4" s="38" t="str">
+        <f>J14&amp;" ± "&amp;K14</f>
+        <v>0.04215 ± 0.00244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="24">
+        <v>0.96193014094930696</v>
+      </c>
+      <c r="G5" s="26">
+        <v>2.0378893891147402E-3</v>
+      </c>
+      <c r="H5" s="36">
+        <v>36.141604121887703</v>
+      </c>
+      <c r="I5" s="26">
+        <v>0.61015832883822296</v>
+      </c>
+      <c r="J5" s="25">
+        <v>4.2151142499425497E-2</v>
+      </c>
+      <c r="K5" s="44">
+        <v>2.4414506059491099E-3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="38" t="str">
+        <f>F15&amp;" ± "&amp;G15</f>
+        <v>0.9502 ± 0.0023</v>
+      </c>
+      <c r="O5" s="38" t="str">
+        <f>H15&amp;" ± "&amp;I15</f>
+        <v>35.82 ± 0.2633</v>
+      </c>
+      <c r="P5" s="38" t="str">
+        <f>J15&amp;" ± "&amp;K15</f>
+        <v>0.04367 ± 0.00065</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0.95021300498626904</v>
+      </c>
+      <c r="G6" s="22">
+        <v>2.3349034316965298E-3</v>
+      </c>
+      <c r="H6" s="37">
+        <v>35.819949409747103</v>
+      </c>
+      <c r="I6" s="22">
+        <v>0.26333616443114799</v>
+      </c>
+      <c r="J6" s="21">
+        <v>4.3671416102453897E-2</v>
+      </c>
+      <c r="K6" s="43">
+        <v>6.5133560854454197E-4</v>
+      </c>
+      <c r="M6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="38" t="str">
+        <f>F16&amp;" ± "&amp;G16</f>
+        <v>0.9475 ± 0.0026</v>
+      </c>
+      <c r="O6" s="38" t="str">
+        <f>H16&amp;" ± "&amp;I16</f>
+        <v>35.18 ± 0.2803</v>
+      </c>
+      <c r="P6" s="38" t="str">
+        <f>J16&amp;" ± "&amp;K16</f>
+        <v>0.04702 ± 0.00078</v>
+      </c>
+      <c r="Z6" s="34"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0.94746606655476195</v>
+      </c>
+      <c r="G7" s="22">
+        <v>2.6051113293130098E-3</v>
+      </c>
+      <c r="H7" s="37">
+        <v>35.179023292174399</v>
+      </c>
+      <c r="I7" s="22">
+        <v>0.28025960470030598</v>
+      </c>
+      <c r="J7" s="22">
+        <v>4.70170985375154E-2</v>
+      </c>
+      <c r="K7" s="43">
+        <v>7.8456176402553405E-4</v>
+      </c>
+      <c r="M7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="38" t="str">
+        <f>F17&amp;" ± "&amp;G17</f>
+        <v>0.9427 ± 0.0026</v>
+      </c>
+      <c r="O7" s="38" t="str">
+        <f t="shared" ref="O7:O8" si="0">H17&amp;" ± "&amp;I17</f>
+        <v>35.18 ± 0.2402</v>
+      </c>
+      <c r="P7" s="38" t="str">
+        <f>J17&amp;" ± "&amp;K17</f>
+        <v>0.04703 ± 0.00059</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0.94265751955688004</v>
+      </c>
+      <c r="G8" s="22">
+        <v>2.58041474429029E-3</v>
+      </c>
+      <c r="H8" s="37">
+        <v>35.175265894996102</v>
+      </c>
+      <c r="I8" s="22">
+        <v>0.24020551241308899</v>
+      </c>
+      <c r="J8" s="22">
+        <v>4.7034584494654197E-2</v>
+      </c>
+      <c r="K8" s="43">
+        <v>5.9086485001875696E-4</v>
+      </c>
+      <c r="M8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="38" t="str">
+        <f t="shared" ref="N8:N9" si="1">F18&amp;" ± "&amp;G18</f>
+        <v>0.9412 ± 0.0027</v>
+      </c>
+      <c r="O8" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>34.71 ± 0.2454</v>
+      </c>
+      <c r="P8" s="38" t="str">
+        <f t="shared" ref="P8:P9" si="2">J18&amp;" ± "&amp;K18</f>
+        <v>0.04962 ± 0.00068</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="22">
+        <v>0.94117420003919905</v>
+      </c>
+      <c r="G9" s="22">
+        <v>2.73180163553806E-3</v>
+      </c>
+      <c r="H9" s="37">
+        <v>34.710563158329201</v>
+      </c>
+      <c r="I9" s="22">
+        <v>0.24537939155548999</v>
+      </c>
+      <c r="J9" s="22">
+        <v>4.96201720050976E-2</v>
+      </c>
+      <c r="K9" s="43">
+        <v>6.7543232681285196E-4</v>
+      </c>
+      <c r="M9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>0.9402 ± 0.0028</v>
+      </c>
+      <c r="O9" s="38" t="str">
+        <f>H19&amp;" ± "&amp;I19</f>
+        <v>34.69 ± 0.2413</v>
+      </c>
+      <c r="P9" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v>0.04977 ± 0.00066</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="28">
+        <v>0.94015636237892497</v>
+      </c>
+      <c r="G10" s="28">
+        <v>2.7563748680607099E-3</v>
+      </c>
+      <c r="H10" s="35">
+        <v>34.685198823613703</v>
+      </c>
+      <c r="I10" s="42">
+        <v>0.24134593670704299</v>
+      </c>
+      <c r="J10" s="26">
+        <v>4.9765113644064003E-2</v>
+      </c>
+      <c r="K10" s="45">
+        <v>6.64771349095182E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F13" s="38">
+        <f t="shared" ref="F13:G16" si="3">ROUND(F4,4)</f>
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="G13" s="38">
+        <f t="shared" si="3"/>
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="H13" s="39">
+        <f>ROUND(H4,2)</f>
+        <v>33.71</v>
+      </c>
+      <c r="I13" s="38">
+        <f>ROUND(I4,4)</f>
+        <v>0.28179999999999999</v>
+      </c>
+      <c r="J13" s="40">
+        <f t="shared" ref="J13:K16" si="4">ROUND(J4,5)</f>
+        <v>5.5669999999999997E-2</v>
+      </c>
+      <c r="K13" s="40">
+        <f t="shared" si="4"/>
+        <v>9.5E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F14" s="38">
+        <f t="shared" si="3"/>
+        <v>0.96189999999999998</v>
+      </c>
+      <c r="G14" s="38">
+        <f t="shared" si="3"/>
+        <v>2E-3</v>
+      </c>
+      <c r="H14" s="39">
+        <f>ROUND(H5,2)</f>
+        <v>36.14</v>
+      </c>
+      <c r="I14" s="38">
+        <f>ROUND(I5,4)</f>
+        <v>0.61019999999999996</v>
+      </c>
+      <c r="J14" s="40">
+        <f t="shared" si="4"/>
+        <v>4.215E-2</v>
+      </c>
+      <c r="K14" s="40">
+        <f t="shared" si="4"/>
+        <v>2.4399999999999999E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F15" s="38">
+        <f t="shared" si="3"/>
+        <v>0.95020000000000004</v>
+      </c>
+      <c r="G15" s="38">
+        <f t="shared" si="3"/>
+        <v>2.3E-3</v>
+      </c>
+      <c r="H15" s="39">
+        <f>ROUND(H6,2)</f>
+        <v>35.82</v>
+      </c>
+      <c r="I15" s="38">
+        <f>ROUND(I6,4)</f>
+        <v>0.26329999999999998</v>
+      </c>
+      <c r="J15" s="40">
+        <f t="shared" si="4"/>
+        <v>4.367E-2</v>
+      </c>
+      <c r="K15" s="40">
+        <f t="shared" si="4"/>
+        <v>6.4999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F16" s="38">
+        <f t="shared" si="3"/>
+        <v>0.94750000000000001</v>
+      </c>
+      <c r="G16" s="38">
+        <f t="shared" si="3"/>
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="H16" s="39">
+        <f>ROUND(H7,2)</f>
+        <v>35.18</v>
+      </c>
+      <c r="I16" s="38">
+        <f>ROUND(I7,4)</f>
+        <v>0.28029999999999999</v>
+      </c>
+      <c r="J16" s="40">
+        <f t="shared" si="4"/>
+        <v>4.7019999999999999E-2</v>
+      </c>
+      <c r="K16" s="40">
+        <f t="shared" si="4"/>
+        <v>7.7999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F17" s="38">
+        <f t="shared" ref="F17:G17" si="5">ROUND(F8,4)</f>
+        <v>0.94269999999999998</v>
+      </c>
+      <c r="G17" s="38">
+        <f t="shared" si="5"/>
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="H17" s="39">
+        <f t="shared" ref="H17:H19" si="6">ROUND(H8,2)</f>
+        <v>35.18</v>
+      </c>
+      <c r="I17" s="38">
+        <f t="shared" ref="I17:I19" si="7">ROUND(I8,4)</f>
+        <v>0.2402</v>
+      </c>
+      <c r="J17" s="40">
+        <f t="shared" ref="J17:K17" si="8">ROUND(J8,5)</f>
+        <v>4.7030000000000002E-2</v>
+      </c>
+      <c r="K17" s="40">
+        <f t="shared" si="8"/>
+        <v>5.9000000000000003E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F18" s="38">
+        <f t="shared" ref="F18:G18" si="9">ROUND(F9,4)</f>
+        <v>0.94120000000000004</v>
+      </c>
+      <c r="G18" s="38">
+        <f t="shared" si="9"/>
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="H18" s="39">
+        <f t="shared" si="6"/>
+        <v>34.71</v>
+      </c>
+      <c r="I18" s="38">
+        <f t="shared" si="7"/>
+        <v>0.24540000000000001</v>
+      </c>
+      <c r="J18" s="40">
+        <f t="shared" ref="J18:K18" si="10">ROUND(J9,5)</f>
+        <v>4.9619999999999997E-2</v>
+      </c>
+      <c r="K18" s="40">
+        <f t="shared" si="10"/>
+        <v>6.8000000000000005E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F19" s="38">
+        <f t="shared" ref="F19:G19" si="11">ROUND(F10,4)</f>
+        <v>0.94020000000000004</v>
+      </c>
+      <c r="G19" s="38">
+        <f t="shared" si="11"/>
+        <v>2.8E-3</v>
+      </c>
+      <c r="H19" s="39">
+        <f t="shared" si="6"/>
+        <v>34.69</v>
+      </c>
+      <c r="I19" s="38">
+        <f t="shared" si="7"/>
+        <v>0.24129999999999999</v>
+      </c>
+      <c r="J19" s="40">
+        <f t="shared" ref="J19:K19" si="12">ROUND(J10,5)</f>
+        <v>4.9770000000000002E-2</v>
+      </c>
+      <c r="K19" s="40">
+        <f t="shared" si="12"/>
+        <v>6.6E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F28" s="38"/>
+    </row>
+    <row r="29" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F29" s="38"/>
+    </row>
+    <row r="30" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F30" s="38"/>
+    </row>
+    <row r="31" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F31" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A4:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB6738F-9F0C-4F02-B33D-0931681EC780}">
   <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="14"/>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="46" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="47"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="52"/>
       <c r="R1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="18" t="s">
         <v>5</v>
       </c>
@@ -2272,7 +2943,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
@@ -2337,76 +3008,76 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" s="41" t="s">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="42"/>
+      <c r="B4" s="47"/>
       <c r="C4">
-        <v>0.97865320453161098</v>
+        <v>0.97671324508492596</v>
       </c>
       <c r="D4">
-        <v>1.2190669074549001E-3</v>
+        <v>1.2542956937052401E-3</v>
       </c>
       <c r="E4">
-        <v>38.740329353190198</v>
+        <v>36.073364939383801</v>
       </c>
       <c r="F4">
-        <v>0.384324596025233</v>
+        <v>0.26821976638731398</v>
       </c>
       <c r="G4">
-        <v>3.1849222640504098E-2</v>
+        <v>4.0328649649784103E-2</v>
       </c>
       <c r="H4" s="31">
-        <v>9.6185954224135102E-4</v>
-      </c>
-      <c r="I4" s="28">
-        <v>0.93395265613830702</v>
-      </c>
-      <c r="J4" s="5">
-        <v>2.9420538124850502E-3</v>
-      </c>
-      <c r="K4" s="5">
-        <v>33.712212390716502</v>
+        <v>1.0232122235715299E-3</v>
+      </c>
+      <c r="I4" s="57">
+        <v>0.935290588464321</v>
+      </c>
+      <c r="J4" s="21">
+        <v>2.39507803036199E-3</v>
+      </c>
+      <c r="K4" s="21">
+        <v>32.970284457357899</v>
       </c>
       <c r="L4" s="21">
-        <v>0.281798821292427</v>
+        <v>0.20088939637075701</v>
       </c>
       <c r="M4" s="21">
-        <v>5.5667151160603397E-2</v>
+        <v>6.12348366535529E-2</v>
       </c>
       <c r="N4" s="6">
-        <v>9.5328345946582105E-4</v>
+        <v>9.8242063777570997E-4</v>
       </c>
       <c r="Q4" t="s">
         <v>24</v>
       </c>
       <c r="R4" s="38" t="str">
         <f>C13&amp;" ± "&amp;D13</f>
-        <v>0.9787 ± 0.0012</v>
+        <v>0.9767 ± 0.0013</v>
       </c>
       <c r="S4" s="38" t="str">
         <f>E13&amp;" ± "&amp;F13</f>
-        <v>38.74 ± 0.3843</v>
+        <v>36.07 ± 0.2682</v>
       </c>
       <c r="T4" s="38" t="str">
         <f>G13&amp;" ± "&amp;H13</f>
-        <v>0.03185 ± 0.00096</v>
+        <v>0.04033 ± 0.00102</v>
       </c>
       <c r="U4" s="38" t="str">
-        <f>I13&amp;"0 ± "&amp;J13</f>
-        <v>0.9340 ± 0.0029</v>
+        <f>I13&amp;" ± "&amp;J13</f>
+        <v>0.9353 ± 0.0024</v>
       </c>
       <c r="V4" s="38" t="str">
         <f>K13&amp;" ± "&amp;L13</f>
-        <v>33.71 ± 0.2818</v>
+        <v>32.97 ± 0.2009</v>
       </c>
       <c r="W4" s="38" t="str">
         <f>M13&amp;" ± "&amp;N13</f>
-        <v>0.05567 ± 0.00095</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+        <v>0.06123 ± 0.00098</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>30</v>
       </c>
@@ -2414,70 +3085,70 @@
         <v>0</v>
       </c>
       <c r="C5" s="18">
-        <v>0.99358902069029298</v>
+        <v>0.99229158461496303</v>
       </c>
       <c r="D5" s="21">
-        <v>3.0606778575671001E-4</v>
+        <v>3.8368614034241098E-4</v>
       </c>
       <c r="E5" s="21">
-        <v>43.524044186714498</v>
+        <v>40.076430234216197</v>
       </c>
       <c r="F5" s="21">
-        <v>0.35885724479491099</v>
+        <v>0.242259653192862</v>
       </c>
       <c r="G5" s="21">
-        <v>1.83608984102804E-2</v>
+        <v>2.5436235359706901E-2</v>
       </c>
       <c r="H5" s="16">
-        <v>5.2741672651467205E-4</v>
+        <v>6.2552623176568103E-4</v>
       </c>
       <c r="I5" s="32">
-        <v>0.70114836218905596</v>
+        <v>0.67708620767938599</v>
       </c>
       <c r="J5" s="32">
-        <v>1.10568267807025E-2</v>
+        <v>1.11173915280494E-2</v>
       </c>
       <c r="K5" s="32">
-        <v>19.401862956529399</v>
+        <v>19.1969818992212</v>
       </c>
       <c r="L5" s="32">
-        <v>0.36800782744885502</v>
+        <v>0.29231741116584498</v>
       </c>
       <c r="M5" s="32">
-        <v>0.28921800555418298</v>
+        <v>0.29906926175659199</v>
       </c>
       <c r="N5" s="6">
-        <v>8.1594105965921097E-3</v>
+        <v>8.2162627088930903E-3</v>
       </c>
       <c r="Q5" t="s">
         <v>34</v>
       </c>
       <c r="R5" s="38" t="str">
         <f>C14&amp;" ± "&amp;D14</f>
-        <v>0.9936 ± 0.0003</v>
+        <v>0.9923 ± 0.0004</v>
       </c>
       <c r="S5" s="38" t="str">
         <f>E14&amp;" ± "&amp;F14</f>
-        <v>43.52 ± 0.3589</v>
+        <v>40.08 ± 0.2423</v>
       </c>
       <c r="T5" s="38" t="str">
         <f>G14&amp;" ± "&amp;H14</f>
-        <v>0.01836 ± 0.00053</v>
+        <v>0.02544 ± 0.00063</v>
       </c>
       <c r="U5" s="38" t="str">
         <f>I14&amp;" ± "&amp;J14</f>
-        <v>0.7011 ± 0.0111</v>
+        <v>0.6771 ± 0.0111</v>
       </c>
       <c r="V5" s="38" t="str">
-        <f>K14&amp;"0 ± "&amp;L14&amp;"0"</f>
-        <v>19.40 ± 0.3680</v>
+        <f>K14&amp;"0 ± "&amp;L14</f>
+        <v>19.20 ± 0.2923</v>
       </c>
       <c r="W5" s="38" t="str">
         <f t="shared" ref="W5:W7" si="0">M14&amp;" ± "&amp;N14</f>
-        <v>0.28922 ± 0.00816</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+        <v>0.29907 ± 0.00822</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>0</v>
       </c>
@@ -2485,70 +3156,70 @@
         <v>30</v>
       </c>
       <c r="C6" s="18">
-        <v>0.96868291771128501</v>
+        <v>0.96463874521395998</v>
       </c>
       <c r="D6" s="21">
-        <v>1.55913382133008E-3</v>
+        <v>1.63887417593308E-3</v>
       </c>
       <c r="E6" s="21">
-        <v>36.035745523927403</v>
-      </c>
-      <c r="F6" s="21">
-        <v>0.39678289698761798</v>
-      </c>
-      <c r="G6" s="21">
-        <v>4.3485006713559197E-2</v>
-      </c>
-      <c r="H6" s="16">
-        <v>1.3396352523636799E-3</v>
+        <v>33.809160908829099</v>
+      </c>
+      <c r="F6" s="58">
+        <v>0.28907241200497902</v>
+      </c>
+      <c r="G6" s="59">
+        <v>5.2339882107438798E-2</v>
+      </c>
+      <c r="H6" s="60">
+        <v>1.35955628978461E-3</v>
       </c>
       <c r="I6" s="32">
-        <v>0.94015636237892497</v>
+        <v>0.94285067025132296</v>
       </c>
       <c r="J6" s="32">
-        <v>2.7563748680607099E-3</v>
+        <v>2.30588093068798E-3</v>
       </c>
       <c r="K6" s="32">
-        <v>34.685198823613703</v>
+        <v>34.0525827289595</v>
       </c>
       <c r="L6" s="32">
-        <v>0.24134593670704299</v>
+        <v>0.19352493059988701</v>
       </c>
       <c r="M6" s="32">
-        <v>4.9765113644064003E-2</v>
+        <v>5.4058511610824103E-2</v>
       </c>
       <c r="N6" s="6">
-        <v>6.64771349095182E-4</v>
+        <v>6.9655830460831395E-4</v>
       </c>
       <c r="Q6" t="s">
         <v>35</v>
       </c>
       <c r="R6" s="38" t="str">
         <f>C15&amp;" ± "&amp;D15</f>
-        <v>0.9687 ± 0.0016</v>
+        <v>0.9646 ± 0.0016</v>
       </c>
       <c r="S6" s="38" t="str">
         <f>E15&amp;" ± "&amp;F15</f>
-        <v>36.04 ± 0.3968</v>
+        <v>33.81 ± 0.2891</v>
       </c>
       <c r="T6" s="38" t="str">
         <f>G15&amp;" ± "&amp;H15</f>
-        <v>0.04349 ± 0.00134</v>
+        <v>0.05234 ± 0.00136</v>
       </c>
       <c r="U6" s="38" t="str">
         <f t="shared" ref="U6:U7" si="1">I15&amp;" ± "&amp;J15</f>
-        <v>0.9402 ± 0.0028</v>
+        <v>0.9429 ± 0.0023</v>
       </c>
       <c r="V6" s="38" t="str">
-        <f t="shared" ref="V5:V7" si="2">K15&amp;" ± "&amp;L15</f>
-        <v>34.69 ± 0.2413</v>
+        <f t="shared" ref="V6:V7" si="2">K15&amp;" ± "&amp;L15</f>
+        <v>34.05 ± 0.1935</v>
       </c>
       <c r="W6" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>0.04977 ± 0.00066</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+        <f>M15&amp;" ± "&amp;N15&amp;"0"</f>
+        <v>0.05406 ± 0.00070</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>30</v>
       </c>
@@ -2556,70 +3227,70 @@
         <v>30</v>
       </c>
       <c r="C7" s="18">
-        <v>0.99306839441791905</v>
+        <v>0.99213278266966698</v>
       </c>
       <c r="D7" s="21">
-        <v>3.5722121139249602E-4</v>
+        <v>3.9831045150605398E-4</v>
       </c>
       <c r="E7" s="21">
-        <v>43.289590558337302</v>
-      </c>
-      <c r="F7" s="21">
-        <v>0.32190844921298101</v>
+        <v>40.5750115016614</v>
+      </c>
+      <c r="F7" s="58">
+        <v>0.23406755993528999</v>
       </c>
       <c r="G7" s="21">
-        <v>1.8862406712386402E-2</v>
+        <v>2.40162296528274E-2</v>
       </c>
       <c r="H7" s="16">
-        <v>5.1336832737636597E-4</v>
+        <v>5.4657804755984705E-4</v>
       </c>
       <c r="I7" s="32">
-        <v>0.94014225521042905</v>
+        <v>0.94240475368947496</v>
       </c>
       <c r="J7" s="32">
-        <v>2.59435398570073E-3</v>
+        <v>2.1579286090612701E-3</v>
       </c>
       <c r="K7" s="32">
-        <v>34.641307378889799</v>
+        <v>33.904240426585801</v>
       </c>
       <c r="L7" s="32">
-        <v>0.22442304807906899</v>
+        <v>0.16508544333116201</v>
       </c>
       <c r="M7" s="32">
-        <v>5.0015903263687898E-2</v>
+        <v>5.4987788736753099E-2</v>
       </c>
       <c r="N7" s="6">
-        <v>5.6176750053787701E-4</v>
+        <v>5.4329123767417201E-4</v>
       </c>
       <c r="Q7" t="s">
         <v>36</v>
       </c>
       <c r="R7" s="38" t="str">
         <f>C16&amp;" ± "&amp;D16</f>
-        <v>0.9931 ± 0.0004</v>
+        <v>0.9921 ± 0.0004</v>
       </c>
       <c r="S7" s="38" t="str">
         <f>E16&amp;" ± "&amp;F16</f>
-        <v>43.29 ± 0.3219</v>
+        <v>40.58 ± 0.2341</v>
       </c>
       <c r="T7" s="38" t="str">
         <f>G16&amp;" ± "&amp;H16</f>
-        <v>0.01886 ± 0.00051</v>
+        <v>0.02402 ± 0.00055</v>
       </c>
       <c r="U7" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>0.9401 ± 0.0026</v>
+        <v>0.9424 ± 0.0022</v>
       </c>
       <c r="V7" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v>34.64 ± 0.2244</v>
+        <f>K16&amp;"0 ± "&amp;L16</f>
+        <v>33.90 ± 0.1651</v>
       </c>
       <c r="W7" s="38" t="str">
         <f t="shared" si="0"/>
-        <v>0.05002 ± 0.00056</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+        <v>0.05499 ± 0.00054</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="16"/>
       <c r="C8" s="18"/>
@@ -2635,7 +3306,7 @@
       <c r="M8" s="5"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="16"/>
       <c r="C9" s="18"/>
@@ -2651,7 +3322,7 @@
       <c r="M9" s="5"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="17"/>
       <c r="C10" s="19"/>
@@ -2667,12 +3338,704 @@
       <c r="M10" s="9"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C13" s="38">
+        <f>ROUND(C4,4)</f>
+        <v>0.97670000000000001</v>
+      </c>
+      <c r="D13" s="38">
+        <f>ROUND(D4,4)</f>
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="E13" s="39">
+        <f>ROUND(E4,2)</f>
+        <v>36.07</v>
+      </c>
+      <c r="F13" s="38">
+        <f>ROUND(F4,4)</f>
+        <v>0.26819999999999999</v>
+      </c>
+      <c r="G13" s="40">
+        <f>ROUND(G4,5)</f>
+        <v>4.0329999999999998E-2</v>
+      </c>
+      <c r="H13" s="40">
+        <f>ROUND(H4,5)</f>
+        <v>1.0200000000000001E-3</v>
+      </c>
+      <c r="I13" s="38">
+        <f>ROUND(I4,4)</f>
+        <v>0.93530000000000002</v>
+      </c>
+      <c r="J13" s="38">
+        <f>ROUND(J4,4)</f>
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="K13" s="39">
+        <f>ROUND(K4,2)</f>
+        <v>32.97</v>
+      </c>
+      <c r="L13" s="38">
+        <f>ROUND(L4,4)</f>
+        <v>0.2009</v>
+      </c>
+      <c r="M13" s="40">
+        <f>ROUND(M4,5)</f>
+        <v>6.123E-2</v>
+      </c>
+      <c r="N13" s="40">
+        <f>ROUND(N4,5)</f>
+        <v>9.7999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C14" s="38">
+        <f t="shared" ref="C14:D16" si="3">ROUND(C5,4)</f>
+        <v>0.99229999999999996</v>
+      </c>
+      <c r="D14" s="38">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E14" s="39">
+        <f t="shared" ref="E14:E16" si="4">ROUND(E5,2)</f>
+        <v>40.08</v>
+      </c>
+      <c r="F14" s="38">
+        <f t="shared" ref="F14:F16" si="5">ROUND(F5,4)</f>
+        <v>0.24229999999999999</v>
+      </c>
+      <c r="G14" s="40">
+        <f t="shared" ref="G14:H16" si="6">ROUND(G5,5)</f>
+        <v>2.5440000000000001E-2</v>
+      </c>
+      <c r="H14" s="40">
+        <f t="shared" si="6"/>
+        <v>6.3000000000000003E-4</v>
+      </c>
+      <c r="I14" s="38">
+        <f t="shared" ref="I14:J16" si="7">ROUND(I5,4)</f>
+        <v>0.67710000000000004</v>
+      </c>
+      <c r="J14" s="38">
+        <f t="shared" si="7"/>
+        <v>1.11E-2</v>
+      </c>
+      <c r="K14" s="39">
+        <f t="shared" ref="K14:K16" si="8">ROUND(K5,2)</f>
+        <v>19.2</v>
+      </c>
+      <c r="L14" s="38">
+        <f t="shared" ref="L14:L16" si="9">ROUND(L5,4)</f>
+        <v>0.2923</v>
+      </c>
+      <c r="M14" s="40">
+        <f t="shared" ref="M14:N16" si="10">ROUND(M5,5)</f>
+        <v>0.29907</v>
+      </c>
+      <c r="N14" s="40">
+        <f t="shared" si="10"/>
+        <v>8.2199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C15" s="38">
+        <f t="shared" si="3"/>
+        <v>0.96460000000000001</v>
+      </c>
+      <c r="D15" s="38">
+        <f t="shared" si="3"/>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="E15" s="39">
+        <f t="shared" si="4"/>
+        <v>33.81</v>
+      </c>
+      <c r="F15" s="38">
+        <f t="shared" si="5"/>
+        <v>0.28910000000000002</v>
+      </c>
+      <c r="G15" s="40">
+        <f t="shared" si="6"/>
+        <v>5.2339999999999998E-2</v>
+      </c>
+      <c r="H15" s="40">
+        <f t="shared" si="6"/>
+        <v>1.3600000000000001E-3</v>
+      </c>
+      <c r="I15" s="38">
+        <f t="shared" si="7"/>
+        <v>0.94289999999999996</v>
+      </c>
+      <c r="J15" s="38">
+        <f t="shared" si="7"/>
+        <v>2.3E-3</v>
+      </c>
+      <c r="K15" s="39">
+        <f t="shared" si="8"/>
+        <v>34.049999999999997</v>
+      </c>
+      <c r="L15" s="38">
+        <f t="shared" si="9"/>
+        <v>0.19350000000000001</v>
+      </c>
+      <c r="M15" s="40">
+        <f t="shared" si="10"/>
+        <v>5.4059999999999997E-2</v>
+      </c>
+      <c r="N15" s="40">
+        <f t="shared" si="10"/>
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C16" s="38">
+        <f>ROUND(C7,4)</f>
+        <v>0.99209999999999998</v>
+      </c>
+      <c r="D16" s="38">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E16" s="39">
+        <f t="shared" si="4"/>
+        <v>40.58</v>
+      </c>
+      <c r="F16" s="38">
+        <f t="shared" si="5"/>
+        <v>0.2341</v>
+      </c>
+      <c r="G16" s="40">
+        <f t="shared" si="6"/>
+        <v>2.402E-2</v>
+      </c>
+      <c r="H16" s="40">
+        <f t="shared" si="6"/>
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="I16" s="38">
+        <f t="shared" si="7"/>
+        <v>0.94240000000000002</v>
+      </c>
+      <c r="J16" s="38">
+        <f t="shared" si="7"/>
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="K16" s="39">
+        <f t="shared" si="8"/>
+        <v>33.9</v>
+      </c>
+      <c r="L16" s="38">
+        <f t="shared" si="9"/>
+        <v>0.1651</v>
+      </c>
+      <c r="M16" s="40">
+        <f t="shared" si="10"/>
+        <v>5.4989999999999997E-2</v>
+      </c>
+      <c r="N16" s="40">
+        <f t="shared" si="10"/>
+        <v>5.4000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="38"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294DF9BF-A0BA-4602-BBE9-E6FCEA5C385D}">
+  <dimension ref="A1:W24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="52"/>
+      <c r="R1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="6"/>
+      <c r="R2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4">
+        <v>0.97865320453161098</v>
+      </c>
+      <c r="D4">
+        <v>1.2190669074549001E-3</v>
+      </c>
+      <c r="E4">
+        <v>38.740329353190198</v>
+      </c>
+      <c r="F4">
+        <v>0.384324596025233</v>
+      </c>
+      <c r="G4">
+        <v>3.1849222640504098E-2</v>
+      </c>
+      <c r="H4" s="31">
+        <v>9.6185954224135102E-4</v>
+      </c>
+      <c r="I4" s="28">
+        <v>0.93395265613830702</v>
+      </c>
+      <c r="J4" s="5">
+        <v>2.9420538124850502E-3</v>
+      </c>
+      <c r="K4" s="5">
+        <v>33.712212390716502</v>
+      </c>
+      <c r="L4" s="21">
+        <v>0.281798821292427</v>
+      </c>
+      <c r="M4" s="21">
+        <v>5.5667151160603397E-2</v>
+      </c>
+      <c r="N4" s="6">
+        <v>9.5328345946582105E-4</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="38" t="str">
+        <f>C13&amp;" ± "&amp;D13</f>
+        <v>0.9787 ± 0.0012</v>
+      </c>
+      <c r="S4" s="38" t="str">
+        <f>E13&amp;" ± "&amp;F13</f>
+        <v>38.74 ± 0.3843</v>
+      </c>
+      <c r="T4" s="38" t="str">
+        <f>G13&amp;" ± "&amp;H13</f>
+        <v>0.03185 ± 0.00096</v>
+      </c>
+      <c r="U4" s="38" t="str">
+        <f>I13&amp;"0 ± "&amp;J13</f>
+        <v>0.9340 ± 0.0029</v>
+      </c>
+      <c r="V4" s="38" t="str">
+        <f>K13&amp;" ± "&amp;L13</f>
+        <v>33.71 ± 0.2818</v>
+      </c>
+      <c r="W4" s="38" t="str">
+        <f>M13&amp;" ± "&amp;N13</f>
+        <v>0.05567 ± 0.00095</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>30</v>
+      </c>
+      <c r="B5" s="16">
+        <v>0</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0.99358902069029298</v>
+      </c>
+      <c r="D5" s="21">
+        <v>3.0606778575671001E-4</v>
+      </c>
+      <c r="E5" s="21">
+        <v>43.524044186714498</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0.35885724479491099</v>
+      </c>
+      <c r="G5" s="21">
+        <v>1.83608984102804E-2</v>
+      </c>
+      <c r="H5" s="16">
+        <v>5.2741672651467205E-4</v>
+      </c>
+      <c r="I5" s="32">
+        <v>0.70114836218905596</v>
+      </c>
+      <c r="J5" s="32">
+        <v>1.10568267807025E-2</v>
+      </c>
+      <c r="K5" s="32">
+        <v>19.401862956529399</v>
+      </c>
+      <c r="L5" s="32">
+        <v>0.36800782744885502</v>
+      </c>
+      <c r="M5" s="32">
+        <v>0.28921800555418298</v>
+      </c>
+      <c r="N5" s="6">
+        <v>8.1594105965921097E-3</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" s="38" t="str">
+        <f>C14&amp;" ± "&amp;D14</f>
+        <v>0.9936 ± 0.0003</v>
+      </c>
+      <c r="S5" s="38" t="str">
+        <f>E14&amp;" ± "&amp;F14</f>
+        <v>43.52 ± 0.3589</v>
+      </c>
+      <c r="T5" s="38" t="str">
+        <f>G14&amp;" ± "&amp;H14</f>
+        <v>0.01836 ± 0.00053</v>
+      </c>
+      <c r="U5" s="38" t="str">
+        <f>I14&amp;" ± "&amp;J14</f>
+        <v>0.7011 ± 0.0111</v>
+      </c>
+      <c r="V5" s="38" t="str">
+        <f>K14&amp;"0 ± "&amp;L14&amp;"0"</f>
+        <v>19.40 ± 0.3680</v>
+      </c>
+      <c r="W5" s="38" t="str">
+        <f t="shared" ref="W5:W7" si="0">M14&amp;" ± "&amp;N14</f>
+        <v>0.28922 ± 0.00816</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>0</v>
+      </c>
+      <c r="B6" s="16">
+        <v>30</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0.96868291771128501</v>
+      </c>
+      <c r="D6" s="21">
+        <v>1.55913382133008E-3</v>
+      </c>
+      <c r="E6" s="21">
+        <v>36.035745523927403</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0.39678289698761798</v>
+      </c>
+      <c r="G6" s="21">
+        <v>4.3485006713559197E-2</v>
+      </c>
+      <c r="H6" s="16">
+        <v>1.3396352523636799E-3</v>
+      </c>
+      <c r="I6" s="32">
+        <v>0.94015636237892497</v>
+      </c>
+      <c r="J6" s="32">
+        <v>2.7563748680607099E-3</v>
+      </c>
+      <c r="K6" s="32">
+        <v>34.685198823613703</v>
+      </c>
+      <c r="L6" s="32">
+        <v>0.24134593670704299</v>
+      </c>
+      <c r="M6" s="32">
+        <v>4.9765113644064003E-2</v>
+      </c>
+      <c r="N6" s="6">
+        <v>6.64771349095182E-4</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6" s="38" t="str">
+        <f>C15&amp;" ± "&amp;D15</f>
+        <v>0.9687 ± 0.0016</v>
+      </c>
+      <c r="S6" s="38" t="str">
+        <f>E15&amp;" ± "&amp;F15</f>
+        <v>36.04 ± 0.3968</v>
+      </c>
+      <c r="T6" s="38" t="str">
+        <f>G15&amp;" ± "&amp;H15</f>
+        <v>0.04349 ± 0.00134</v>
+      </c>
+      <c r="U6" s="38" t="str">
+        <f t="shared" ref="U6:U7" si="1">I15&amp;" ± "&amp;J15</f>
+        <v>0.9402 ± 0.0028</v>
+      </c>
+      <c r="V6" s="38" t="str">
+        <f t="shared" ref="V6:V7" si="2">K15&amp;" ± "&amp;L15</f>
+        <v>34.69 ± 0.2413</v>
+      </c>
+      <c r="W6" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>0.04977 ± 0.00066</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>30</v>
+      </c>
+      <c r="B7" s="16">
+        <v>30</v>
+      </c>
+      <c r="C7" s="18">
+        <v>0.99306839441791905</v>
+      </c>
+      <c r="D7" s="21">
+        <v>3.5722121139249602E-4</v>
+      </c>
+      <c r="E7" s="21">
+        <v>43.289590558337302</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0.32190844921298101</v>
+      </c>
+      <c r="G7" s="21">
+        <v>1.8862406712386402E-2</v>
+      </c>
+      <c r="H7" s="16">
+        <v>5.1336832737636597E-4</v>
+      </c>
+      <c r="I7" s="32">
+        <v>0.94014225521042905</v>
+      </c>
+      <c r="J7" s="32">
+        <v>2.59435398570073E-3</v>
+      </c>
+      <c r="K7" s="32">
+        <v>34.641307378889799</v>
+      </c>
+      <c r="L7" s="32">
+        <v>0.22442304807906899</v>
+      </c>
+      <c r="M7" s="32">
+        <v>5.0015903263687898E-2</v>
+      </c>
+      <c r="N7" s="6">
+        <v>5.6176750053787701E-4</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R7" s="38" t="str">
+        <f>C16&amp;" ± "&amp;D16</f>
+        <v>0.9931 ± 0.0004</v>
+      </c>
+      <c r="S7" s="38" t="str">
+        <f>E16&amp;" ± "&amp;F16</f>
+        <v>43.29 ± 0.3219</v>
+      </c>
+      <c r="T7" s="38" t="str">
+        <f>G16&amp;" ± "&amp;H16</f>
+        <v>0.01886 ± 0.00051</v>
+      </c>
+      <c r="U7" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>0.9401 ± 0.0026</v>
+      </c>
+      <c r="V7" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v>34.64 ± 0.2244</v>
+      </c>
+      <c r="W7" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>0.05002 ± 0.00056</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C13" s="38">
         <f>ROUND(C4,4)</f>
         <v>0.97870000000000001</v>
@@ -2722,7 +4085,7 @@
         <v>9.5E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C14" s="38">
         <f t="shared" ref="C14:D16" si="3">ROUND(C5,4)</f>
         <v>0.99360000000000004</v>
@@ -2772,7 +4135,7 @@
         <v>8.1600000000000006E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C15" s="38">
         <f t="shared" si="3"/>
         <v>0.96870000000000001</v>
@@ -2822,7 +4185,7 @@
         <v>6.6E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C16" s="38">
         <f t="shared" si="3"/>
         <v>0.99309999999999998</v>
@@ -2872,10 +4235,10 @@
         <v>5.5999999999999995E-4</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="38"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="38"/>
     </row>
   </sheetData>
